--- a/INTLINE/data/193/ABS/6427018.xlsx
+++ b/INTLINE/data/193/ABS/6427018.xlsx
@@ -12,398 +12,398 @@
     <sheet name="Enquiries" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="A2389358J">Data1!$CP$1:$CP$10,Data1!$CP$87:$CP$232</definedName>
-    <definedName name="A2389358J_Data">Data1!$CP$87:$CP$232</definedName>
-    <definedName name="A2389358J_Latest">Data1!$CP$232</definedName>
-    <definedName name="A2389361W">Data1!$CX$1:$CX$10,Data1!$CX$87:$CX$232</definedName>
-    <definedName name="A2389361W_Data">Data1!$CX$87:$CX$232</definedName>
-    <definedName name="A2389361W_Latest">Data1!$CX$232</definedName>
-    <definedName name="A2389403J">Data1!$CL$1:$CL$10,Data1!$CL$87:$CL$232</definedName>
-    <definedName name="A2389403J_Data">Data1!$CL$87:$CL$232</definedName>
-    <definedName name="A2389403J_Latest">Data1!$CL$232</definedName>
-    <definedName name="A2389406R">Data1!$CQ$1:$CQ$10,Data1!$CQ$87:$CQ$232</definedName>
-    <definedName name="A2389406R_Data">Data1!$CQ$87:$CQ$232</definedName>
-    <definedName name="A2389406R_Latest">Data1!$CQ$232</definedName>
-    <definedName name="A2389412K">Data1!$CR$1:$CR$10,Data1!$CR$87:$CR$232</definedName>
-    <definedName name="A2389412K_Data">Data1!$CR$87:$CR$232</definedName>
-    <definedName name="A2389412K_Latest">Data1!$CR$232</definedName>
-    <definedName name="A2389415T">Data1!$DV$1:$DV$10,Data1!$DV$128:$DV$232</definedName>
-    <definedName name="A2389415T_Data">Data1!$DV$128:$DV$232</definedName>
-    <definedName name="A2389415T_Latest">Data1!$DV$232</definedName>
-    <definedName name="A2389508C">Data1!$EA$1:$EA$10,Data1!$EA$128:$EA$232</definedName>
-    <definedName name="A2389508C_Data">Data1!$EA$128:$EA$232</definedName>
-    <definedName name="A2389508C_Latest">Data1!$EA$232</definedName>
-    <definedName name="A2389511T">Data1!$CW$1:$CW$10,Data1!$CW$87:$CW$232</definedName>
-    <definedName name="A2389511T_Data">Data1!$CW$87:$CW$232</definedName>
-    <definedName name="A2389511T_Latest">Data1!$CW$232</definedName>
-    <definedName name="A2389574A">Data1!$CJ$1:$CJ$10,Data1!$CJ$87:$CJ$232</definedName>
-    <definedName name="A2389574A_Data">Data1!$CJ$87:$CJ$232</definedName>
-    <definedName name="A2389574A_Latest">Data1!$CJ$232</definedName>
-    <definedName name="A2389580W">Data1!$CG$1:$CG$10,Data1!$CG$87:$CG$232</definedName>
-    <definedName name="A2389580W_Data">Data1!$CG$87:$CG$232</definedName>
-    <definedName name="A2389580W_Latest">Data1!$CG$232</definedName>
-    <definedName name="A2389664F">Data1!$DC$1:$DC$10,Data1!$DC$87:$DC$232</definedName>
-    <definedName name="A2389664F_Data">Data1!$DC$87:$DC$232</definedName>
-    <definedName name="A2389664F_Latest">Data1!$DC$232</definedName>
-    <definedName name="A2389706T">Data1!$CU$1:$CU$10,Data1!$CU$87:$CU$232</definedName>
-    <definedName name="A2389706T_Data">Data1!$CU$87:$CU$232</definedName>
-    <definedName name="A2389706T_Latest">Data1!$CU$232</definedName>
-    <definedName name="A2389709X">Data1!$CM$1:$CM$10,Data1!$CM$87:$CM$232</definedName>
-    <definedName name="A2389709X_Data">Data1!$CM$87:$CM$232</definedName>
-    <definedName name="A2389709X_Latest">Data1!$CM$232</definedName>
-    <definedName name="A2389712L">Data1!$DB$1:$DB$10,Data1!$DB$87:$DB$232</definedName>
-    <definedName name="A2389712L_Data">Data1!$DB$87:$DB$232</definedName>
-    <definedName name="A2389712L_Latest">Data1!$DB$232</definedName>
-    <definedName name="A2389760F">Data1!$DZ$1:$DZ$10,Data1!$DZ$87:$DZ$232</definedName>
-    <definedName name="A2389760F_Data">Data1!$DZ$87:$DZ$232</definedName>
-    <definedName name="A2389760F_Latest">Data1!$DZ$232</definedName>
-    <definedName name="A2389781T">Data1!$DM$1:$DM$10,Data1!$DM$87:$DM$232</definedName>
-    <definedName name="A2389781T_Data">Data1!$DM$87:$DM$232</definedName>
-    <definedName name="A2389781T_Latest">Data1!$DM$232</definedName>
-    <definedName name="A2389805X">Data1!$DN$1:$DN$10,Data1!$DN$87:$DN$232</definedName>
-    <definedName name="A2389805X_Data">Data1!$DN$87:$DN$232</definedName>
-    <definedName name="A2389805X_Latest">Data1!$DN$232</definedName>
-    <definedName name="A2389829T">Data1!$CZ$1:$CZ$10,Data1!$CZ$87:$CZ$232</definedName>
-    <definedName name="A2389829T_Data">Data1!$CZ$87:$CZ$232</definedName>
-    <definedName name="A2389829T_Latest">Data1!$CZ$232</definedName>
-    <definedName name="A2389850K">Data1!$CI$1:$CI$10,Data1!$CI$87:$CI$232</definedName>
-    <definedName name="A2389850K_Data">Data1!$CI$87:$CI$232</definedName>
-    <definedName name="A2389850K_Latest">Data1!$CI$232</definedName>
-    <definedName name="A2389868J">Data1!$DX$1:$DX$10,Data1!$DX$128:$DX$232</definedName>
-    <definedName name="A2389868J_Data">Data1!$DX$128:$DX$232</definedName>
-    <definedName name="A2389868J_Latest">Data1!$DX$232</definedName>
-    <definedName name="A2389892J">Data1!$CH$1:$CH$10,Data1!$CH$87:$CH$232</definedName>
-    <definedName name="A2389892J_Data">Data1!$CH$87:$CH$232</definedName>
-    <definedName name="A2389892J_Latest">Data1!$CH$232</definedName>
-    <definedName name="A2389913J">Data1!$DA$1:$DA$10,Data1!$DA$128:$DA$232</definedName>
-    <definedName name="A2389913J_Data">Data1!$DA$128:$DA$232</definedName>
-    <definedName name="A2389913J_Latest">Data1!$DA$232</definedName>
-    <definedName name="A2389937A">Data1!$DY$1:$DY$10,Data1!$DY$87:$DY$232</definedName>
-    <definedName name="A2389937A_Data">Data1!$DY$87:$DY$232</definedName>
-    <definedName name="A2389937A_Latest">Data1!$DY$232</definedName>
-    <definedName name="A2389958L">Data1!$CT$1:$CT$10,Data1!$CT$87:$CT$232</definedName>
-    <definedName name="A2389958L_Data">Data1!$CT$87:$CT$232</definedName>
-    <definedName name="A2389958L_Latest">Data1!$CT$232</definedName>
-    <definedName name="A2389979X">Data1!$DU$1:$DU$10,Data1!$DU$128:$DU$232</definedName>
-    <definedName name="A2389979X_Data">Data1!$DU$128:$DU$232</definedName>
-    <definedName name="A2389979X_Latest">Data1!$DU$232</definedName>
-    <definedName name="A2390000L">Data1!$CN$1:$CN$10,Data1!$CN$87:$CN$232</definedName>
-    <definedName name="A2390000L_Data">Data1!$CN$87:$CN$232</definedName>
-    <definedName name="A2390000L_Latest">Data1!$CN$232</definedName>
-    <definedName name="A2390042K">Data1!$DW$1:$DW$10,Data1!$DW$87:$DW$232</definedName>
-    <definedName name="A2390042K_Data">Data1!$DW$87:$DW$232</definedName>
-    <definedName name="A2390042K_Latest">Data1!$DW$232</definedName>
-    <definedName name="A2390069K">Data1!$DJ$1:$DJ$10,Data1!$DJ$87:$DJ$232</definedName>
-    <definedName name="A2390069K_Data">Data1!$DJ$87:$DJ$232</definedName>
-    <definedName name="A2390069K_Latest">Data1!$DJ$232</definedName>
-    <definedName name="A2390093K">Data1!$DG$1:$DG$10,Data1!$DG$128:$DG$232</definedName>
-    <definedName name="A2390093K_Data">Data1!$DG$128:$DG$232</definedName>
-    <definedName name="A2390093K_Latest">Data1!$DG$232</definedName>
-    <definedName name="A2390114K">Data1!$DI$1:$DI$10,Data1!$DI$128:$DI$232</definedName>
-    <definedName name="A2390114K_Data">Data1!$DI$128:$DI$232</definedName>
-    <definedName name="A2390114K_Latest">Data1!$DI$232</definedName>
-    <definedName name="A2390135W">Data1!$DH$1:$DH$10,Data1!$DH$128:$DH$232</definedName>
-    <definedName name="A2390135W_Data">Data1!$DH$128:$DH$232</definedName>
-    <definedName name="A2390135W_Latest">Data1!$DH$232</definedName>
-    <definedName name="A2390156J">Data1!$DD$1:$DD$10,Data1!$DD$87:$DD$232</definedName>
-    <definedName name="A2390156J_Data">Data1!$DD$87:$DD$232</definedName>
-    <definedName name="A2390156J_Latest">Data1!$DD$232</definedName>
-    <definedName name="A2390180J">Data1!$DK$1:$DK$10,Data1!$DK$87:$DK$232</definedName>
-    <definedName name="A2390180J_Data">Data1!$DK$87:$DK$232</definedName>
-    <definedName name="A2390180J_Latest">Data1!$DK$232</definedName>
-    <definedName name="A2390201J">Data1!$DE$1:$DE$10,Data1!$DE$87:$DE$232</definedName>
-    <definedName name="A2390201J_Data">Data1!$DE$87:$DE$232</definedName>
-    <definedName name="A2390201J_Latest">Data1!$DE$232</definedName>
-    <definedName name="A2390222V">Data1!$DR$1:$DR$10,Data1!$DR$87:$DR$232</definedName>
-    <definedName name="A2390222V_Data">Data1!$DR$87:$DR$232</definedName>
-    <definedName name="A2390222V_Latest">Data1!$DR$232</definedName>
-    <definedName name="A2390243F">Data1!$DQ$1:$DQ$10,Data1!$DQ$87:$DQ$232</definedName>
-    <definedName name="A2390243F_Data">Data1!$DQ$87:$DQ$232</definedName>
-    <definedName name="A2390243F_Latest">Data1!$DQ$232</definedName>
-    <definedName name="A2390264T">Data1!$DS$1:$DS$10,Data1!$DS$87:$DS$232</definedName>
-    <definedName name="A2390264T_Data">Data1!$DS$87:$DS$232</definedName>
-    <definedName name="A2390264T_Latest">Data1!$DS$232</definedName>
-    <definedName name="A2390285C">Data1!$DO$1:$DO$10,Data1!$DO$128:$DO$232</definedName>
-    <definedName name="A2390285C_Data">Data1!$DO$128:$DO$232</definedName>
-    <definedName name="A2390285C_Latest">Data1!$DO$232</definedName>
-    <definedName name="A2390372A">Data1!$CF$1:$CF$10,Data1!$CF$87:$CF$232</definedName>
-    <definedName name="A2390372A_Data">Data1!$CF$87:$CF$232</definedName>
-    <definedName name="A2390372A_Latest">Data1!$CF$232</definedName>
-    <definedName name="A2390417V">Data1!$C$1:$C$10,Data1!$C$11:$C$232</definedName>
-    <definedName name="A2390417V_Data">Data1!$C$11:$C$232</definedName>
-    <definedName name="A2390417V_Latest">Data1!$C$232</definedName>
-    <definedName name="A2390418W">Data1!$J$1:$J$10,Data1!$J$12:$J$232</definedName>
-    <definedName name="A2390418W_Data">Data1!$J$12:$J$232</definedName>
-    <definedName name="A2390418W_Latest">Data1!$J$232</definedName>
-    <definedName name="A2390419X">Data1!$Q$1:$Q$10,Data1!$Q$15:$Q$232</definedName>
-    <definedName name="A2390419X_Data">Data1!$Q$15:$Q$232</definedName>
-    <definedName name="A2390419X_Latest">Data1!$Q$232</definedName>
-    <definedName name="A2390462F">Data1!$D$1:$D$10,Data1!$D$11:$D$232</definedName>
-    <definedName name="A2390462F_Data">Data1!$D$11:$D$232</definedName>
-    <definedName name="A2390462F_Latest">Data1!$D$232</definedName>
-    <definedName name="A2390463J">Data1!$K$1:$K$10,Data1!$K$12:$K$232</definedName>
-    <definedName name="A2390463J_Data">Data1!$K$12:$K$232</definedName>
-    <definedName name="A2390463J_Latest">Data1!$K$232</definedName>
-    <definedName name="A2390464K">Data1!$R$1:$R$10,Data1!$R$15:$R$232</definedName>
-    <definedName name="A2390464K_Data">Data1!$R$15:$R$232</definedName>
-    <definedName name="A2390464K_Latest">Data1!$R$232</definedName>
-    <definedName name="A2390507X">Data1!$E$1:$E$10,Data1!$E$11:$E$232</definedName>
-    <definedName name="A2390507X_Data">Data1!$E$11:$E$232</definedName>
-    <definedName name="A2390507X_Latest">Data1!$E$232</definedName>
-    <definedName name="A2390508A">Data1!$L$1:$L$10,Data1!$L$12:$L$232</definedName>
-    <definedName name="A2390508A_Data">Data1!$L$12:$L$232</definedName>
-    <definedName name="A2390508A_Latest">Data1!$L$232</definedName>
-    <definedName name="A2390509C">Data1!$S$1:$S$10,Data1!$S$15:$S$232</definedName>
-    <definedName name="A2390509C_Data">Data1!$S$15:$S$232</definedName>
-    <definedName name="A2390509C_Latest">Data1!$S$232</definedName>
-    <definedName name="A2390558X">Data1!$B$1:$B$10,Data1!$B$11:$B$232</definedName>
-    <definedName name="A2390558X_Data">Data1!$B$11:$B$232</definedName>
-    <definedName name="A2390558X_Latest">Data1!$B$232</definedName>
-    <definedName name="A2390559A">Data1!$I$1:$I$10,Data1!$I$12:$I$232</definedName>
-    <definedName name="A2390559A_Data">Data1!$I$12:$I$232</definedName>
-    <definedName name="A2390559A_Latest">Data1!$I$232</definedName>
-    <definedName name="A2390560K">Data1!$P$1:$P$10,Data1!$P$15:$P$232</definedName>
-    <definedName name="A2390560K_Data">Data1!$P$15:$P$232</definedName>
-    <definedName name="A2390560K_Latest">Data1!$P$232</definedName>
-    <definedName name="A2390561L">Data1!$F$1:$F$10,Data1!$F$11:$F$232</definedName>
-    <definedName name="A2390561L_Data">Data1!$F$11:$F$232</definedName>
-    <definedName name="A2390561L_Latest">Data1!$F$232</definedName>
-    <definedName name="A2390562R">Data1!$M$1:$M$10,Data1!$M$12:$M$232</definedName>
-    <definedName name="A2390562R_Data">Data1!$M$12:$M$232</definedName>
-    <definedName name="A2390562R_Latest">Data1!$M$232</definedName>
-    <definedName name="A2390563T">Data1!$T$1:$T$10,Data1!$T$15:$T$232</definedName>
-    <definedName name="A2390563T_Data">Data1!$T$15:$T$232</definedName>
-    <definedName name="A2390563T_Latest">Data1!$T$232</definedName>
-    <definedName name="A2390606F">Data1!$G$1:$G$10,Data1!$G$11:$G$232</definedName>
-    <definedName name="A2390606F_Data">Data1!$G$11:$G$232</definedName>
-    <definedName name="A2390606F_Latest">Data1!$G$232</definedName>
-    <definedName name="A2390607J">Data1!$N$1:$N$10,Data1!$N$12:$N$232</definedName>
-    <definedName name="A2390607J_Data">Data1!$N$12:$N$232</definedName>
-    <definedName name="A2390607J_Latest">Data1!$N$232</definedName>
-    <definedName name="A2390608K">Data1!$U$1:$U$10,Data1!$U$15:$U$232</definedName>
-    <definedName name="A2390608K_Data">Data1!$U$15:$U$232</definedName>
-    <definedName name="A2390608K_Latest">Data1!$U$232</definedName>
-    <definedName name="A2390651T">Data1!$H$1:$H$10,Data1!$H$11:$H$232</definedName>
-    <definedName name="A2390651T_Data">Data1!$H$11:$H$232</definedName>
-    <definedName name="A2390651T_Latest">Data1!$H$232</definedName>
-    <definedName name="A2390652V">Data1!$O$1:$O$10,Data1!$O$12:$O$232</definedName>
-    <definedName name="A2390652V_Data">Data1!$O$12:$O$232</definedName>
-    <definedName name="A2390652V_Latest">Data1!$O$232</definedName>
-    <definedName name="A2390653W">Data1!$V$1:$V$10,Data1!$V$15:$V$232</definedName>
-    <definedName name="A2390653W_Data">Data1!$V$15:$V$232</definedName>
-    <definedName name="A2390653W_Latest">Data1!$V$232</definedName>
-    <definedName name="A2390789J">Data1!$CE$1:$CE$10,Data1!$CE$11:$CE$232</definedName>
-    <definedName name="A2390789J_Data">Data1!$CE$11:$CE$232</definedName>
-    <definedName name="A2390789J_Latest">Data1!$CE$232</definedName>
-    <definedName name="A2390792W">Data1!$CK$1:$CK$10,Data1!$CK$11:$CK$232</definedName>
-    <definedName name="A2390792W_Data">Data1!$CK$11:$CK$232</definedName>
-    <definedName name="A2390792W_Latest">Data1!$CK$232</definedName>
-    <definedName name="A2390795C">Data1!$CO$1:$CO$10,Data1!$CO$11:$CO$232</definedName>
-    <definedName name="A2390795C_Data">Data1!$CO$11:$CO$232</definedName>
-    <definedName name="A2390795C_Latest">Data1!$CO$232</definedName>
-    <definedName name="A2390798K">Data1!$CS$1:$CS$10,Data1!$CS$11:$CS$232</definedName>
-    <definedName name="A2390798K_Data">Data1!$CS$11:$CS$232</definedName>
-    <definedName name="A2390798K_Latest">Data1!$CS$232</definedName>
-    <definedName name="A2390801L">Data1!$DF$1:$DF$10,Data1!$DF$11:$DF$232</definedName>
-    <definedName name="A2390801L_Data">Data1!$DF$11:$DF$232</definedName>
-    <definedName name="A2390801L_Latest">Data1!$DF$232</definedName>
-    <definedName name="A2390804V">Data1!$DP$1:$DP$10,Data1!$DP$11:$DP$232</definedName>
-    <definedName name="A2390804V_Data">Data1!$DP$11:$DP$232</definedName>
-    <definedName name="A2390804V_Latest">Data1!$DP$232</definedName>
-    <definedName name="A2390807A">Data1!$DT$1:$DT$10,Data1!$DT$11:$DT$232</definedName>
-    <definedName name="A2390807A_Data">Data1!$DT$11:$DT$232</definedName>
-    <definedName name="A2390807A_Latest">Data1!$DT$232</definedName>
-    <definedName name="A2390810R">Data1!$CV$1:$CV$10,Data1!$CV$11:$CV$232</definedName>
-    <definedName name="A2390810R_Data">Data1!$CV$11:$CV$232</definedName>
-    <definedName name="A2390810R_Latest">Data1!$CV$232</definedName>
-    <definedName name="A2390813W">Data1!$CY$1:$CY$10,Data1!$CY$11:$CY$232</definedName>
-    <definedName name="A2390813W_Data">Data1!$CY$11:$CY$232</definedName>
-    <definedName name="A2390813W_Latest">Data1!$CY$232</definedName>
-    <definedName name="A2390816C">Data1!$DL$1:$DL$10,Data1!$DL$11:$DL$232</definedName>
-    <definedName name="A2390816C_Data">Data1!$DL$11:$DL$232</definedName>
-    <definedName name="A2390816C_Latest">Data1!$DL$232</definedName>
-    <definedName name="A2390822X">Data1!$W$1:$W$10,Data1!$W$103:$W$232</definedName>
-    <definedName name="A2390822X_Data">Data1!$W$103:$W$232</definedName>
-    <definedName name="A2390822X_Latest">Data1!$W$232</definedName>
-    <definedName name="A2390825F">Data1!$AG$1:$AG$10,Data1!$AG$103:$AG$232</definedName>
-    <definedName name="A2390825F_Data">Data1!$AG$103:$AG$232</definedName>
-    <definedName name="A2390825F_Latest">Data1!$AG$232</definedName>
-    <definedName name="A2390828L">Data1!$AQ$1:$AQ$10,Data1!$AQ$103:$AQ$232</definedName>
-    <definedName name="A2390828L_Data">Data1!$AQ$103:$AQ$232</definedName>
-    <definedName name="A2390828L_Latest">Data1!$AQ$232</definedName>
-    <definedName name="A2390831A">Data1!$BA$1:$BA$10,Data1!$BA$103:$BA$232</definedName>
-    <definedName name="A2390831A_Data">Data1!$BA$103:$BA$232</definedName>
-    <definedName name="A2390831A_Latest">Data1!$BA$232</definedName>
-    <definedName name="A2390834J">Data1!$BK$1:$BK$10,Data1!$BK$103:$BK$232</definedName>
-    <definedName name="A2390834J_Data">Data1!$BK$103:$BK$232</definedName>
-    <definedName name="A2390834J_Latest">Data1!$BK$232</definedName>
-    <definedName name="A2390837R">Data1!$BU$1:$BU$10,Data1!$BU$103:$BU$232</definedName>
-    <definedName name="A2390837R_Data">Data1!$BU$103:$BU$232</definedName>
-    <definedName name="A2390837R_Latest">Data1!$BU$232</definedName>
-    <definedName name="A2390840C">Data1!$X$1:$X$10,Data1!$X$103:$X$232</definedName>
-    <definedName name="A2390840C_Data">Data1!$X$103:$X$232</definedName>
-    <definedName name="A2390840C_Latest">Data1!$X$232</definedName>
-    <definedName name="A2390843K">Data1!$AH$1:$AH$10,Data1!$AH$103:$AH$232</definedName>
-    <definedName name="A2390843K_Data">Data1!$AH$103:$AH$232</definedName>
-    <definedName name="A2390843K_Latest">Data1!$AH$232</definedName>
-    <definedName name="A2390846T">Data1!$AR$1:$AR$10,Data1!$AR$103:$AR$232</definedName>
-    <definedName name="A2390846T_Data">Data1!$AR$103:$AR$232</definedName>
-    <definedName name="A2390846T_Latest">Data1!$AR$232</definedName>
-    <definedName name="A2390849X">Data1!$BB$1:$BB$10,Data1!$BB$103:$BB$232</definedName>
-    <definedName name="A2390849X_Data">Data1!$BB$103:$BB$232</definedName>
-    <definedName name="A2390849X_Latest">Data1!$BB$232</definedName>
-    <definedName name="A2390852L">Data1!$BL$1:$BL$10,Data1!$BL$103:$BL$232</definedName>
-    <definedName name="A2390852L_Data">Data1!$BL$103:$BL$232</definedName>
-    <definedName name="A2390852L_Latest">Data1!$BL$232</definedName>
-    <definedName name="A2390855V">Data1!$BV$1:$BV$10,Data1!$BV$103:$BV$232</definedName>
-    <definedName name="A2390855V_Data">Data1!$BV$103:$BV$232</definedName>
-    <definedName name="A2390855V_Latest">Data1!$BV$232</definedName>
-    <definedName name="A2390858A">Data1!$Y$1:$Y$10,Data1!$Y$103:$Y$232</definedName>
-    <definedName name="A2390858A_Data">Data1!$Y$103:$Y$232</definedName>
-    <definedName name="A2390858A_Latest">Data1!$Y$232</definedName>
-    <definedName name="A2390861R">Data1!$AI$1:$AI$10,Data1!$AI$103:$AI$232</definedName>
-    <definedName name="A2390861R_Data">Data1!$AI$103:$AI$232</definedName>
-    <definedName name="A2390861R_Latest">Data1!$AI$232</definedName>
-    <definedName name="A2390864W">Data1!$AS$1:$AS$10,Data1!$AS$103:$AS$232</definedName>
-    <definedName name="A2390864W_Data">Data1!$AS$103:$AS$232</definedName>
-    <definedName name="A2390864W_Latest">Data1!$AS$232</definedName>
-    <definedName name="A2390867C">Data1!$BC$1:$BC$10,Data1!$BC$103:$BC$232</definedName>
-    <definedName name="A2390867C_Data">Data1!$BC$103:$BC$232</definedName>
-    <definedName name="A2390867C_Latest">Data1!$BC$232</definedName>
-    <definedName name="A2390870T">Data1!$BM$1:$BM$10,Data1!$BM$103:$BM$232</definedName>
-    <definedName name="A2390870T_Data">Data1!$BM$103:$BM$232</definedName>
-    <definedName name="A2390870T_Latest">Data1!$BM$232</definedName>
-    <definedName name="A2390873X">Data1!$BW$1:$BW$10,Data1!$BW$103:$BW$232</definedName>
-    <definedName name="A2390873X_Data">Data1!$BW$103:$BW$232</definedName>
-    <definedName name="A2390873X_Latest">Data1!$BW$232</definedName>
-    <definedName name="A2390876F">Data1!$Z$1:$Z$10,Data1!$Z$103:$Z$232</definedName>
-    <definedName name="A2390876F_Data">Data1!$Z$103:$Z$232</definedName>
-    <definedName name="A2390876F_Latest">Data1!$Z$232</definedName>
-    <definedName name="A2390879L">Data1!$AJ$1:$AJ$10,Data1!$AJ$103:$AJ$232</definedName>
-    <definedName name="A2390879L_Data">Data1!$AJ$103:$AJ$232</definedName>
-    <definedName name="A2390879L_Latest">Data1!$AJ$232</definedName>
-    <definedName name="A2390882A">Data1!$AT$1:$AT$10,Data1!$AT$103:$AT$232</definedName>
-    <definedName name="A2390882A_Data">Data1!$AT$103:$AT$232</definedName>
-    <definedName name="A2390882A_Latest">Data1!$AT$232</definedName>
-    <definedName name="A2390885J">Data1!$BD$1:$BD$10,Data1!$BD$103:$BD$232</definedName>
-    <definedName name="A2390885J_Data">Data1!$BD$103:$BD$232</definedName>
-    <definedName name="A2390885J_Latest">Data1!$BD$232</definedName>
-    <definedName name="A2390888R">Data1!$BN$1:$BN$10,Data1!$BN$103:$BN$232</definedName>
-    <definedName name="A2390888R_Data">Data1!$BN$103:$BN$232</definedName>
-    <definedName name="A2390888R_Latest">Data1!$BN$232</definedName>
-    <definedName name="A2390891C">Data1!$AC$1:$AC$10,Data1!$AC$103:$AC$232</definedName>
-    <definedName name="A2390891C_Data">Data1!$AC$103:$AC$232</definedName>
-    <definedName name="A2390891C_Latest">Data1!$AC$232</definedName>
-    <definedName name="A2390894K">Data1!$AM$1:$AM$10,Data1!$AM$103:$AM$232</definedName>
-    <definedName name="A2390894K_Data">Data1!$AM$103:$AM$232</definedName>
-    <definedName name="A2390894K_Latest">Data1!$AM$232</definedName>
-    <definedName name="A2390897T">Data1!$AW$1:$AW$10,Data1!$AW$103:$AW$232</definedName>
-    <definedName name="A2390897T_Data">Data1!$AW$103:$AW$232</definedName>
-    <definedName name="A2390897T_Latest">Data1!$AW$232</definedName>
-    <definedName name="A2390900V">Data1!$BG$1:$BG$10,Data1!$BG$103:$BG$232</definedName>
-    <definedName name="A2390900V_Data">Data1!$BG$103:$BG$232</definedName>
-    <definedName name="A2390900V_Latest">Data1!$BG$232</definedName>
-    <definedName name="A2390903A">Data1!$BQ$1:$BQ$10,Data1!$BQ$103:$BQ$232</definedName>
-    <definedName name="A2390903A_Data">Data1!$BQ$103:$BQ$232</definedName>
-    <definedName name="A2390903A_Latest">Data1!$BQ$232</definedName>
-    <definedName name="A2390906J">Data1!$CA$1:$CA$10,Data1!$CA$103:$CA$232</definedName>
-    <definedName name="A2390906J_Data">Data1!$CA$103:$CA$232</definedName>
-    <definedName name="A2390906J_Latest">Data1!$CA$232</definedName>
-    <definedName name="A2390909R">Data1!$AE$1:$AE$10,Data1!$AE$103:$AE$232</definedName>
-    <definedName name="A2390909R_Data">Data1!$AE$103:$AE$232</definedName>
-    <definedName name="A2390909R_Latest">Data1!$AE$232</definedName>
-    <definedName name="A2390912C">Data1!$AO$1:$AO$10,Data1!$AO$103:$AO$232</definedName>
-    <definedName name="A2390912C_Data">Data1!$AO$103:$AO$232</definedName>
-    <definedName name="A2390912C_Latest">Data1!$AO$232</definedName>
-    <definedName name="A2390915K">Data1!$AY$1:$AY$10,Data1!$AY$103:$AY$232</definedName>
-    <definedName name="A2390915K_Data">Data1!$AY$103:$AY$232</definedName>
-    <definedName name="A2390915K_Latest">Data1!$AY$232</definedName>
-    <definedName name="A2390918T">Data1!$BI$1:$BI$10,Data1!$BI$103:$BI$232</definedName>
-    <definedName name="A2390918T_Data">Data1!$BI$103:$BI$232</definedName>
-    <definedName name="A2390918T_Latest">Data1!$BI$232</definedName>
-    <definedName name="A2390921F">Data1!$BS$1:$BS$10,Data1!$BS$103:$BS$232</definedName>
-    <definedName name="A2390921F_Data">Data1!$BS$103:$BS$232</definedName>
-    <definedName name="A2390921F_Latest">Data1!$BS$232</definedName>
-    <definedName name="A2390924L">Data1!$CC$1:$CC$10,Data1!$CC$103:$CC$232</definedName>
-    <definedName name="A2390924L_Data">Data1!$CC$103:$CC$232</definedName>
-    <definedName name="A2390924L_Latest">Data1!$CC$232</definedName>
-    <definedName name="A2390927V">Data1!$AF$1:$AF$10,Data1!$AF$103:$AF$232</definedName>
-    <definedName name="A2390927V_Data">Data1!$AF$103:$AF$232</definedName>
-    <definedName name="A2390927V_Latest">Data1!$AF$232</definedName>
-    <definedName name="A2390930J">Data1!$AP$1:$AP$10,Data1!$AP$103:$AP$232</definedName>
-    <definedName name="A2390930J_Data">Data1!$AP$103:$AP$232</definedName>
-    <definedName name="A2390930J_Latest">Data1!$AP$232</definedName>
-    <definedName name="A2390933R">Data1!$AZ$1:$AZ$10,Data1!$AZ$103:$AZ$232</definedName>
-    <definedName name="A2390933R_Data">Data1!$AZ$103:$AZ$232</definedName>
-    <definedName name="A2390933R_Latest">Data1!$AZ$232</definedName>
-    <definedName name="A2390936W">Data1!$BJ$1:$BJ$10,Data1!$BJ$103:$BJ$232</definedName>
-    <definedName name="A2390936W_Data">Data1!$BJ$103:$BJ$232</definedName>
-    <definedName name="A2390936W_Latest">Data1!$BJ$232</definedName>
-    <definedName name="A2390939C">Data1!$BT$1:$BT$10,Data1!$BT$103:$BT$232</definedName>
-    <definedName name="A2390939C_Data">Data1!$BT$103:$BT$232</definedName>
-    <definedName name="A2390939C_Latest">Data1!$BT$232</definedName>
-    <definedName name="A2390942T">Data1!$CD$1:$CD$10,Data1!$CD$103:$CD$232</definedName>
-    <definedName name="A2390942T_Data">Data1!$CD$103:$CD$232</definedName>
-    <definedName name="A2390942T_Latest">Data1!$CD$232</definedName>
-    <definedName name="A2390945X">Data1!$AA$1:$AA$10,Data1!$AA$103:$AA$232</definedName>
-    <definedName name="A2390945X_Data">Data1!$AA$103:$AA$232</definedName>
-    <definedName name="A2390945X_Latest">Data1!$AA$232</definedName>
-    <definedName name="A2390948F">Data1!$AK$1:$AK$10,Data1!$AK$103:$AK$232</definedName>
-    <definedName name="A2390948F_Data">Data1!$AK$103:$AK$232</definedName>
-    <definedName name="A2390948F_Latest">Data1!$AK$232</definedName>
-    <definedName name="A2390951V">Data1!$AU$1:$AU$10,Data1!$AU$103:$AU$232</definedName>
-    <definedName name="A2390951V_Data">Data1!$AU$103:$AU$232</definedName>
-    <definedName name="A2390951V_Latest">Data1!$AU$232</definedName>
-    <definedName name="A2390954A">Data1!$BE$1:$BE$10,Data1!$BE$103:$BE$232</definedName>
-    <definedName name="A2390954A_Data">Data1!$BE$103:$BE$232</definedName>
-    <definedName name="A2390954A_Latest">Data1!$BE$232</definedName>
-    <definedName name="A2390957J">Data1!$BO$1:$BO$10,Data1!$BO$103:$BO$232</definedName>
-    <definedName name="A2390957J_Data">Data1!$BO$103:$BO$232</definedName>
-    <definedName name="A2390957J_Latest">Data1!$BO$232</definedName>
-    <definedName name="A2390960W">Data1!$BY$1:$BY$10,Data1!$BY$103:$BY$232</definedName>
-    <definedName name="A2390960W_Data">Data1!$BY$103:$BY$232</definedName>
-    <definedName name="A2390960W_Latest">Data1!$BY$232</definedName>
-    <definedName name="A2390963C">Data1!$AB$1:$AB$10,Data1!$AB$103:$AB$232</definedName>
-    <definedName name="A2390963C_Data">Data1!$AB$103:$AB$232</definedName>
-    <definedName name="A2390963C_Latest">Data1!$AB$232</definedName>
-    <definedName name="A2390966K">Data1!$AL$1:$AL$10,Data1!$AL$103:$AL$232</definedName>
-    <definedName name="A2390966K_Data">Data1!$AL$103:$AL$232</definedName>
-    <definedName name="A2390966K_Latest">Data1!$AL$232</definedName>
-    <definedName name="A2390969T">Data1!$AV$1:$AV$10,Data1!$AV$103:$AV$232</definedName>
-    <definedName name="A2390969T_Data">Data1!$AV$103:$AV$232</definedName>
-    <definedName name="A2390969T_Latest">Data1!$AV$232</definedName>
-    <definedName name="A2390972F">Data1!$BF$1:$BF$10,Data1!$BF$103:$BF$232</definedName>
-    <definedName name="A2390972F_Data">Data1!$BF$103:$BF$232</definedName>
-    <definedName name="A2390972F_Latest">Data1!$BF$232</definedName>
-    <definedName name="A2390975L">Data1!$BP$1:$BP$10,Data1!$BP$103:$BP$232</definedName>
-    <definedName name="A2390975L_Data">Data1!$BP$103:$BP$232</definedName>
-    <definedName name="A2390975L_Latest">Data1!$BP$232</definedName>
-    <definedName name="A2390978V">Data1!$BZ$1:$BZ$10,Data1!$BZ$103:$BZ$232</definedName>
-    <definedName name="A2390978V_Data">Data1!$BZ$103:$BZ$232</definedName>
-    <definedName name="A2390978V_Latest">Data1!$BZ$232</definedName>
-    <definedName name="A2390981J">Data1!$AD$1:$AD$10,Data1!$AD$103:$AD$232</definedName>
-    <definedName name="A2390981J_Data">Data1!$AD$103:$AD$232</definedName>
-    <definedName name="A2390981J_Latest">Data1!$AD$232</definedName>
-    <definedName name="A2390984R">Data1!$AN$1:$AN$10,Data1!$AN$103:$AN$232</definedName>
-    <definedName name="A2390984R_Data">Data1!$AN$103:$AN$232</definedName>
-    <definedName name="A2390984R_Latest">Data1!$AN$232</definedName>
-    <definedName name="A2390987W">Data1!$AX$1:$AX$10,Data1!$AX$103:$AX$232</definedName>
-    <definedName name="A2390987W_Data">Data1!$AX$103:$AX$232</definedName>
-    <definedName name="A2390987W_Latest">Data1!$AX$232</definedName>
-    <definedName name="A2390990K">Data1!$BH$1:$BH$10,Data1!$BH$103:$BH$232</definedName>
-    <definedName name="A2390990K_Data">Data1!$BH$103:$BH$232</definedName>
-    <definedName name="A2390990K_Latest">Data1!$BH$232</definedName>
-    <definedName name="A2390993T">Data1!$BR$1:$BR$10,Data1!$BR$103:$BR$232</definedName>
-    <definedName name="A2390993T_Data">Data1!$BR$103:$BR$232</definedName>
-    <definedName name="A2390993T_Latest">Data1!$BR$232</definedName>
-    <definedName name="A2390996X">Data1!$CB$1:$CB$10,Data1!$CB$103:$CB$232</definedName>
-    <definedName name="A2390996X_Data">Data1!$CB$103:$CB$232</definedName>
-    <definedName name="A2390996X_Latest">Data1!$CB$232</definedName>
-    <definedName name="A2390999F">Data1!$BX$1:$BX$10,Data1!$BX$103:$BX$232</definedName>
-    <definedName name="A2390999F_Data">Data1!$BX$103:$BX$232</definedName>
-    <definedName name="A2390999F_Latest">Data1!$BX$232</definedName>
-    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$232</definedName>
-    <definedName name="Date_Range_Data">Data1!$A$11:$A$232</definedName>
+    <definedName name="A2389358J">Data1!$CP$1:$CP$10,Data1!$CP$87:$CP$233</definedName>
+    <definedName name="A2389358J_Data">Data1!$CP$87:$CP$233</definedName>
+    <definedName name="A2389358J_Latest">Data1!$CP$233</definedName>
+    <definedName name="A2389361W">Data1!$CX$1:$CX$10,Data1!$CX$87:$CX$233</definedName>
+    <definedName name="A2389361W_Data">Data1!$CX$87:$CX$233</definedName>
+    <definedName name="A2389361W_Latest">Data1!$CX$233</definedName>
+    <definedName name="A2389403J">Data1!$CL$1:$CL$10,Data1!$CL$87:$CL$233</definedName>
+    <definedName name="A2389403J_Data">Data1!$CL$87:$CL$233</definedName>
+    <definedName name="A2389403J_Latest">Data1!$CL$233</definedName>
+    <definedName name="A2389406R">Data1!$CQ$1:$CQ$10,Data1!$CQ$87:$CQ$233</definedName>
+    <definedName name="A2389406R_Data">Data1!$CQ$87:$CQ$233</definedName>
+    <definedName name="A2389406R_Latest">Data1!$CQ$233</definedName>
+    <definedName name="A2389412K">Data1!$CR$1:$CR$10,Data1!$CR$87:$CR$233</definedName>
+    <definedName name="A2389412K_Data">Data1!$CR$87:$CR$233</definedName>
+    <definedName name="A2389412K_Latest">Data1!$CR$233</definedName>
+    <definedName name="A2389415T">Data1!$DV$1:$DV$10,Data1!$DV$128:$DV$233</definedName>
+    <definedName name="A2389415T_Data">Data1!$DV$128:$DV$233</definedName>
+    <definedName name="A2389415T_Latest">Data1!$DV$233</definedName>
+    <definedName name="A2389508C">Data1!$EA$1:$EA$10,Data1!$EA$128:$EA$233</definedName>
+    <definedName name="A2389508C_Data">Data1!$EA$128:$EA$233</definedName>
+    <definedName name="A2389508C_Latest">Data1!$EA$233</definedName>
+    <definedName name="A2389511T">Data1!$CW$1:$CW$10,Data1!$CW$87:$CW$233</definedName>
+    <definedName name="A2389511T_Data">Data1!$CW$87:$CW$233</definedName>
+    <definedName name="A2389511T_Latest">Data1!$CW$233</definedName>
+    <definedName name="A2389574A">Data1!$CJ$1:$CJ$10,Data1!$CJ$87:$CJ$233</definedName>
+    <definedName name="A2389574A_Data">Data1!$CJ$87:$CJ$233</definedName>
+    <definedName name="A2389574A_Latest">Data1!$CJ$233</definedName>
+    <definedName name="A2389580W">Data1!$CG$1:$CG$10,Data1!$CG$87:$CG$233</definedName>
+    <definedName name="A2389580W_Data">Data1!$CG$87:$CG$233</definedName>
+    <definedName name="A2389580W_Latest">Data1!$CG$233</definedName>
+    <definedName name="A2389664F">Data1!$DC$1:$DC$10,Data1!$DC$87:$DC$233</definedName>
+    <definedName name="A2389664F_Data">Data1!$DC$87:$DC$233</definedName>
+    <definedName name="A2389664F_Latest">Data1!$DC$233</definedName>
+    <definedName name="A2389706T">Data1!$CU$1:$CU$10,Data1!$CU$87:$CU$233</definedName>
+    <definedName name="A2389706T_Data">Data1!$CU$87:$CU$233</definedName>
+    <definedName name="A2389706T_Latest">Data1!$CU$233</definedName>
+    <definedName name="A2389709X">Data1!$CM$1:$CM$10,Data1!$CM$87:$CM$233</definedName>
+    <definedName name="A2389709X_Data">Data1!$CM$87:$CM$233</definedName>
+    <definedName name="A2389709X_Latest">Data1!$CM$233</definedName>
+    <definedName name="A2389712L">Data1!$DB$1:$DB$10,Data1!$DB$87:$DB$233</definedName>
+    <definedName name="A2389712L_Data">Data1!$DB$87:$DB$233</definedName>
+    <definedName name="A2389712L_Latest">Data1!$DB$233</definedName>
+    <definedName name="A2389760F">Data1!$DZ$1:$DZ$10,Data1!$DZ$87:$DZ$233</definedName>
+    <definedName name="A2389760F_Data">Data1!$DZ$87:$DZ$233</definedName>
+    <definedName name="A2389760F_Latest">Data1!$DZ$233</definedName>
+    <definedName name="A2389781T">Data1!$DM$1:$DM$10,Data1!$DM$87:$DM$233</definedName>
+    <definedName name="A2389781T_Data">Data1!$DM$87:$DM$233</definedName>
+    <definedName name="A2389781T_Latest">Data1!$DM$233</definedName>
+    <definedName name="A2389805X">Data1!$DN$1:$DN$10,Data1!$DN$87:$DN$233</definedName>
+    <definedName name="A2389805X_Data">Data1!$DN$87:$DN$233</definedName>
+    <definedName name="A2389805X_Latest">Data1!$DN$233</definedName>
+    <definedName name="A2389829T">Data1!$CZ$1:$CZ$10,Data1!$CZ$87:$CZ$233</definedName>
+    <definedName name="A2389829T_Data">Data1!$CZ$87:$CZ$233</definedName>
+    <definedName name="A2389829T_Latest">Data1!$CZ$233</definedName>
+    <definedName name="A2389850K">Data1!$CI$1:$CI$10,Data1!$CI$87:$CI$233</definedName>
+    <definedName name="A2389850K_Data">Data1!$CI$87:$CI$233</definedName>
+    <definedName name="A2389850K_Latest">Data1!$CI$233</definedName>
+    <definedName name="A2389868J">Data1!$DX$1:$DX$10,Data1!$DX$128:$DX$233</definedName>
+    <definedName name="A2389868J_Data">Data1!$DX$128:$DX$233</definedName>
+    <definedName name="A2389868J_Latest">Data1!$DX$233</definedName>
+    <definedName name="A2389892J">Data1!$CH$1:$CH$10,Data1!$CH$87:$CH$233</definedName>
+    <definedName name="A2389892J_Data">Data1!$CH$87:$CH$233</definedName>
+    <definedName name="A2389892J_Latest">Data1!$CH$233</definedName>
+    <definedName name="A2389913J">Data1!$DA$1:$DA$10,Data1!$DA$128:$DA$233</definedName>
+    <definedName name="A2389913J_Data">Data1!$DA$128:$DA$233</definedName>
+    <definedName name="A2389913J_Latest">Data1!$DA$233</definedName>
+    <definedName name="A2389937A">Data1!$DY$1:$DY$10,Data1!$DY$87:$DY$233</definedName>
+    <definedName name="A2389937A_Data">Data1!$DY$87:$DY$233</definedName>
+    <definedName name="A2389937A_Latest">Data1!$DY$233</definedName>
+    <definedName name="A2389958L">Data1!$CT$1:$CT$10,Data1!$CT$87:$CT$233</definedName>
+    <definedName name="A2389958L_Data">Data1!$CT$87:$CT$233</definedName>
+    <definedName name="A2389958L_Latest">Data1!$CT$233</definedName>
+    <definedName name="A2389979X">Data1!$DU$1:$DU$10,Data1!$DU$128:$DU$233</definedName>
+    <definedName name="A2389979X_Data">Data1!$DU$128:$DU$233</definedName>
+    <definedName name="A2389979X_Latest">Data1!$DU$233</definedName>
+    <definedName name="A2390000L">Data1!$CN$1:$CN$10,Data1!$CN$87:$CN$233</definedName>
+    <definedName name="A2390000L_Data">Data1!$CN$87:$CN$233</definedName>
+    <definedName name="A2390000L_Latest">Data1!$CN$233</definedName>
+    <definedName name="A2390042K">Data1!$DW$1:$DW$10,Data1!$DW$87:$DW$233</definedName>
+    <definedName name="A2390042K_Data">Data1!$DW$87:$DW$233</definedName>
+    <definedName name="A2390042K_Latest">Data1!$DW$233</definedName>
+    <definedName name="A2390069K">Data1!$DJ$1:$DJ$10,Data1!$DJ$87:$DJ$233</definedName>
+    <definedName name="A2390069K_Data">Data1!$DJ$87:$DJ$233</definedName>
+    <definedName name="A2390069K_Latest">Data1!$DJ$233</definedName>
+    <definedName name="A2390093K">Data1!$DG$1:$DG$10,Data1!$DG$128:$DG$233</definedName>
+    <definedName name="A2390093K_Data">Data1!$DG$128:$DG$233</definedName>
+    <definedName name="A2390093K_Latest">Data1!$DG$233</definedName>
+    <definedName name="A2390114K">Data1!$DI$1:$DI$10,Data1!$DI$128:$DI$233</definedName>
+    <definedName name="A2390114K_Data">Data1!$DI$128:$DI$233</definedName>
+    <definedName name="A2390114K_Latest">Data1!$DI$233</definedName>
+    <definedName name="A2390135W">Data1!$DH$1:$DH$10,Data1!$DH$128:$DH$233</definedName>
+    <definedName name="A2390135W_Data">Data1!$DH$128:$DH$233</definedName>
+    <definedName name="A2390135W_Latest">Data1!$DH$233</definedName>
+    <definedName name="A2390156J">Data1!$DD$1:$DD$10,Data1!$DD$87:$DD$233</definedName>
+    <definedName name="A2390156J_Data">Data1!$DD$87:$DD$233</definedName>
+    <definedName name="A2390156J_Latest">Data1!$DD$233</definedName>
+    <definedName name="A2390180J">Data1!$DK$1:$DK$10,Data1!$DK$87:$DK$233</definedName>
+    <definedName name="A2390180J_Data">Data1!$DK$87:$DK$233</definedName>
+    <definedName name="A2390180J_Latest">Data1!$DK$233</definedName>
+    <definedName name="A2390201J">Data1!$DE$1:$DE$10,Data1!$DE$87:$DE$233</definedName>
+    <definedName name="A2390201J_Data">Data1!$DE$87:$DE$233</definedName>
+    <definedName name="A2390201J_Latest">Data1!$DE$233</definedName>
+    <definedName name="A2390222V">Data1!$DR$1:$DR$10,Data1!$DR$87:$DR$233</definedName>
+    <definedName name="A2390222V_Data">Data1!$DR$87:$DR$233</definedName>
+    <definedName name="A2390222V_Latest">Data1!$DR$233</definedName>
+    <definedName name="A2390243F">Data1!$DQ$1:$DQ$10,Data1!$DQ$87:$DQ$233</definedName>
+    <definedName name="A2390243F_Data">Data1!$DQ$87:$DQ$233</definedName>
+    <definedName name="A2390243F_Latest">Data1!$DQ$233</definedName>
+    <definedName name="A2390264T">Data1!$DS$1:$DS$10,Data1!$DS$87:$DS$233</definedName>
+    <definedName name="A2390264T_Data">Data1!$DS$87:$DS$233</definedName>
+    <definedName name="A2390264T_Latest">Data1!$DS$233</definedName>
+    <definedName name="A2390285C">Data1!$DO$1:$DO$10,Data1!$DO$128:$DO$233</definedName>
+    <definedName name="A2390285C_Data">Data1!$DO$128:$DO$233</definedName>
+    <definedName name="A2390285C_Latest">Data1!$DO$233</definedName>
+    <definedName name="A2390372A">Data1!$CF$1:$CF$10,Data1!$CF$87:$CF$233</definedName>
+    <definedName name="A2390372A_Data">Data1!$CF$87:$CF$233</definedName>
+    <definedName name="A2390372A_Latest">Data1!$CF$233</definedName>
+    <definedName name="A2390417V">Data1!$C$1:$C$10,Data1!$C$11:$C$233</definedName>
+    <definedName name="A2390417V_Data">Data1!$C$11:$C$233</definedName>
+    <definedName name="A2390417V_Latest">Data1!$C$233</definedName>
+    <definedName name="A2390418W">Data1!$J$1:$J$10,Data1!$J$12:$J$233</definedName>
+    <definedName name="A2390418W_Data">Data1!$J$12:$J$233</definedName>
+    <definedName name="A2390418W_Latest">Data1!$J$233</definedName>
+    <definedName name="A2390419X">Data1!$Q$1:$Q$10,Data1!$Q$15:$Q$233</definedName>
+    <definedName name="A2390419X_Data">Data1!$Q$15:$Q$233</definedName>
+    <definedName name="A2390419X_Latest">Data1!$Q$233</definedName>
+    <definedName name="A2390462F">Data1!$D$1:$D$10,Data1!$D$11:$D$233</definedName>
+    <definedName name="A2390462F_Data">Data1!$D$11:$D$233</definedName>
+    <definedName name="A2390462F_Latest">Data1!$D$233</definedName>
+    <definedName name="A2390463J">Data1!$K$1:$K$10,Data1!$K$12:$K$233</definedName>
+    <definedName name="A2390463J_Data">Data1!$K$12:$K$233</definedName>
+    <definedName name="A2390463J_Latest">Data1!$K$233</definedName>
+    <definedName name="A2390464K">Data1!$R$1:$R$10,Data1!$R$15:$R$233</definedName>
+    <definedName name="A2390464K_Data">Data1!$R$15:$R$233</definedName>
+    <definedName name="A2390464K_Latest">Data1!$R$233</definedName>
+    <definedName name="A2390507X">Data1!$E$1:$E$10,Data1!$E$11:$E$233</definedName>
+    <definedName name="A2390507X_Data">Data1!$E$11:$E$233</definedName>
+    <definedName name="A2390507X_Latest">Data1!$E$233</definedName>
+    <definedName name="A2390508A">Data1!$L$1:$L$10,Data1!$L$12:$L$233</definedName>
+    <definedName name="A2390508A_Data">Data1!$L$12:$L$233</definedName>
+    <definedName name="A2390508A_Latest">Data1!$L$233</definedName>
+    <definedName name="A2390509C">Data1!$S$1:$S$10,Data1!$S$15:$S$233</definedName>
+    <definedName name="A2390509C_Data">Data1!$S$15:$S$233</definedName>
+    <definedName name="A2390509C_Latest">Data1!$S$233</definedName>
+    <definedName name="A2390558X">Data1!$B$1:$B$10,Data1!$B$11:$B$233</definedName>
+    <definedName name="A2390558X_Data">Data1!$B$11:$B$233</definedName>
+    <definedName name="A2390558X_Latest">Data1!$B$233</definedName>
+    <definedName name="A2390559A">Data1!$I$1:$I$10,Data1!$I$12:$I$233</definedName>
+    <definedName name="A2390559A_Data">Data1!$I$12:$I$233</definedName>
+    <definedName name="A2390559A_Latest">Data1!$I$233</definedName>
+    <definedName name="A2390560K">Data1!$P$1:$P$10,Data1!$P$15:$P$233</definedName>
+    <definedName name="A2390560K_Data">Data1!$P$15:$P$233</definedName>
+    <definedName name="A2390560K_Latest">Data1!$P$233</definedName>
+    <definedName name="A2390561L">Data1!$F$1:$F$10,Data1!$F$11:$F$233</definedName>
+    <definedName name="A2390561L_Data">Data1!$F$11:$F$233</definedName>
+    <definedName name="A2390561L_Latest">Data1!$F$233</definedName>
+    <definedName name="A2390562R">Data1!$M$1:$M$10,Data1!$M$12:$M$233</definedName>
+    <definedName name="A2390562R_Data">Data1!$M$12:$M$233</definedName>
+    <definedName name="A2390562R_Latest">Data1!$M$233</definedName>
+    <definedName name="A2390563T">Data1!$T$1:$T$10,Data1!$T$15:$T$233</definedName>
+    <definedName name="A2390563T_Data">Data1!$T$15:$T$233</definedName>
+    <definedName name="A2390563T_Latest">Data1!$T$233</definedName>
+    <definedName name="A2390606F">Data1!$G$1:$G$10,Data1!$G$11:$G$233</definedName>
+    <definedName name="A2390606F_Data">Data1!$G$11:$G$233</definedName>
+    <definedName name="A2390606F_Latest">Data1!$G$233</definedName>
+    <definedName name="A2390607J">Data1!$N$1:$N$10,Data1!$N$12:$N$233</definedName>
+    <definedName name="A2390607J_Data">Data1!$N$12:$N$233</definedName>
+    <definedName name="A2390607J_Latest">Data1!$N$233</definedName>
+    <definedName name="A2390608K">Data1!$U$1:$U$10,Data1!$U$15:$U$233</definedName>
+    <definedName name="A2390608K_Data">Data1!$U$15:$U$233</definedName>
+    <definedName name="A2390608K_Latest">Data1!$U$233</definedName>
+    <definedName name="A2390651T">Data1!$H$1:$H$10,Data1!$H$11:$H$233</definedName>
+    <definedName name="A2390651T_Data">Data1!$H$11:$H$233</definedName>
+    <definedName name="A2390651T_Latest">Data1!$H$233</definedName>
+    <definedName name="A2390652V">Data1!$O$1:$O$10,Data1!$O$12:$O$233</definedName>
+    <definedName name="A2390652V_Data">Data1!$O$12:$O$233</definedName>
+    <definedName name="A2390652V_Latest">Data1!$O$233</definedName>
+    <definedName name="A2390653W">Data1!$V$1:$V$10,Data1!$V$15:$V$233</definedName>
+    <definedName name="A2390653W_Data">Data1!$V$15:$V$233</definedName>
+    <definedName name="A2390653W_Latest">Data1!$V$233</definedName>
+    <definedName name="A2390789J">Data1!$CE$1:$CE$10,Data1!$CE$11:$CE$233</definedName>
+    <definedName name="A2390789J_Data">Data1!$CE$11:$CE$233</definedName>
+    <definedName name="A2390789J_Latest">Data1!$CE$233</definedName>
+    <definedName name="A2390792W">Data1!$CK$1:$CK$10,Data1!$CK$11:$CK$233</definedName>
+    <definedName name="A2390792W_Data">Data1!$CK$11:$CK$233</definedName>
+    <definedName name="A2390792W_Latest">Data1!$CK$233</definedName>
+    <definedName name="A2390795C">Data1!$CO$1:$CO$10,Data1!$CO$11:$CO$233</definedName>
+    <definedName name="A2390795C_Data">Data1!$CO$11:$CO$233</definedName>
+    <definedName name="A2390795C_Latest">Data1!$CO$233</definedName>
+    <definedName name="A2390798K">Data1!$CS$1:$CS$10,Data1!$CS$11:$CS$233</definedName>
+    <definedName name="A2390798K_Data">Data1!$CS$11:$CS$233</definedName>
+    <definedName name="A2390798K_Latest">Data1!$CS$233</definedName>
+    <definedName name="A2390801L">Data1!$DF$1:$DF$10,Data1!$DF$11:$DF$233</definedName>
+    <definedName name="A2390801L_Data">Data1!$DF$11:$DF$233</definedName>
+    <definedName name="A2390801L_Latest">Data1!$DF$233</definedName>
+    <definedName name="A2390804V">Data1!$DP$1:$DP$10,Data1!$DP$11:$DP$233</definedName>
+    <definedName name="A2390804V_Data">Data1!$DP$11:$DP$233</definedName>
+    <definedName name="A2390804V_Latest">Data1!$DP$233</definedName>
+    <definedName name="A2390807A">Data1!$DT$1:$DT$10,Data1!$DT$11:$DT$233</definedName>
+    <definedName name="A2390807A_Data">Data1!$DT$11:$DT$233</definedName>
+    <definedName name="A2390807A_Latest">Data1!$DT$233</definedName>
+    <definedName name="A2390810R">Data1!$CV$1:$CV$10,Data1!$CV$11:$CV$233</definedName>
+    <definedName name="A2390810R_Data">Data1!$CV$11:$CV$233</definedName>
+    <definedName name="A2390810R_Latest">Data1!$CV$233</definedName>
+    <definedName name="A2390813W">Data1!$CY$1:$CY$10,Data1!$CY$11:$CY$233</definedName>
+    <definedName name="A2390813W_Data">Data1!$CY$11:$CY$233</definedName>
+    <definedName name="A2390813W_Latest">Data1!$CY$233</definedName>
+    <definedName name="A2390816C">Data1!$DL$1:$DL$10,Data1!$DL$11:$DL$233</definedName>
+    <definedName name="A2390816C_Data">Data1!$DL$11:$DL$233</definedName>
+    <definedName name="A2390816C_Latest">Data1!$DL$233</definedName>
+    <definedName name="A2390822X">Data1!$W$1:$W$10,Data1!$W$103:$W$233</definedName>
+    <definedName name="A2390822X_Data">Data1!$W$103:$W$233</definedName>
+    <definedName name="A2390822X_Latest">Data1!$W$233</definedName>
+    <definedName name="A2390825F">Data1!$AG$1:$AG$10,Data1!$AG$103:$AG$233</definedName>
+    <definedName name="A2390825F_Data">Data1!$AG$103:$AG$233</definedName>
+    <definedName name="A2390825F_Latest">Data1!$AG$233</definedName>
+    <definedName name="A2390828L">Data1!$AQ$1:$AQ$10,Data1!$AQ$103:$AQ$233</definedName>
+    <definedName name="A2390828L_Data">Data1!$AQ$103:$AQ$233</definedName>
+    <definedName name="A2390828L_Latest">Data1!$AQ$233</definedName>
+    <definedName name="A2390831A">Data1!$BA$1:$BA$10,Data1!$BA$103:$BA$233</definedName>
+    <definedName name="A2390831A_Data">Data1!$BA$103:$BA$233</definedName>
+    <definedName name="A2390831A_Latest">Data1!$BA$233</definedName>
+    <definedName name="A2390834J">Data1!$BK$1:$BK$10,Data1!$BK$103:$BK$233</definedName>
+    <definedName name="A2390834J_Data">Data1!$BK$103:$BK$233</definedName>
+    <definedName name="A2390834J_Latest">Data1!$BK$233</definedName>
+    <definedName name="A2390837R">Data1!$BU$1:$BU$10,Data1!$BU$103:$BU$233</definedName>
+    <definedName name="A2390837R_Data">Data1!$BU$103:$BU$233</definedName>
+    <definedName name="A2390837R_Latest">Data1!$BU$233</definedName>
+    <definedName name="A2390840C">Data1!$X$1:$X$10,Data1!$X$103:$X$233</definedName>
+    <definedName name="A2390840C_Data">Data1!$X$103:$X$233</definedName>
+    <definedName name="A2390840C_Latest">Data1!$X$233</definedName>
+    <definedName name="A2390843K">Data1!$AH$1:$AH$10,Data1!$AH$103:$AH$233</definedName>
+    <definedName name="A2390843K_Data">Data1!$AH$103:$AH$233</definedName>
+    <definedName name="A2390843K_Latest">Data1!$AH$233</definedName>
+    <definedName name="A2390846T">Data1!$AR$1:$AR$10,Data1!$AR$103:$AR$233</definedName>
+    <definedName name="A2390846T_Data">Data1!$AR$103:$AR$233</definedName>
+    <definedName name="A2390846T_Latest">Data1!$AR$233</definedName>
+    <definedName name="A2390849X">Data1!$BB$1:$BB$10,Data1!$BB$103:$BB$233</definedName>
+    <definedName name="A2390849X_Data">Data1!$BB$103:$BB$233</definedName>
+    <definedName name="A2390849X_Latest">Data1!$BB$233</definedName>
+    <definedName name="A2390852L">Data1!$BL$1:$BL$10,Data1!$BL$103:$BL$233</definedName>
+    <definedName name="A2390852L_Data">Data1!$BL$103:$BL$233</definedName>
+    <definedName name="A2390852L_Latest">Data1!$BL$233</definedName>
+    <definedName name="A2390855V">Data1!$BV$1:$BV$10,Data1!$BV$103:$BV$233</definedName>
+    <definedName name="A2390855V_Data">Data1!$BV$103:$BV$233</definedName>
+    <definedName name="A2390855V_Latest">Data1!$BV$233</definedName>
+    <definedName name="A2390858A">Data1!$Y$1:$Y$10,Data1!$Y$103:$Y$233</definedName>
+    <definedName name="A2390858A_Data">Data1!$Y$103:$Y$233</definedName>
+    <definedName name="A2390858A_Latest">Data1!$Y$233</definedName>
+    <definedName name="A2390861R">Data1!$AI$1:$AI$10,Data1!$AI$103:$AI$233</definedName>
+    <definedName name="A2390861R_Data">Data1!$AI$103:$AI$233</definedName>
+    <definedName name="A2390861R_Latest">Data1!$AI$233</definedName>
+    <definedName name="A2390864W">Data1!$AS$1:$AS$10,Data1!$AS$103:$AS$233</definedName>
+    <definedName name="A2390864W_Data">Data1!$AS$103:$AS$233</definedName>
+    <definedName name="A2390864W_Latest">Data1!$AS$233</definedName>
+    <definedName name="A2390867C">Data1!$BC$1:$BC$10,Data1!$BC$103:$BC$233</definedName>
+    <definedName name="A2390867C_Data">Data1!$BC$103:$BC$233</definedName>
+    <definedName name="A2390867C_Latest">Data1!$BC$233</definedName>
+    <definedName name="A2390870T">Data1!$BM$1:$BM$10,Data1!$BM$103:$BM$233</definedName>
+    <definedName name="A2390870T_Data">Data1!$BM$103:$BM$233</definedName>
+    <definedName name="A2390870T_Latest">Data1!$BM$233</definedName>
+    <definedName name="A2390873X">Data1!$BW$1:$BW$10,Data1!$BW$103:$BW$233</definedName>
+    <definedName name="A2390873X_Data">Data1!$BW$103:$BW$233</definedName>
+    <definedName name="A2390873X_Latest">Data1!$BW$233</definedName>
+    <definedName name="A2390876F">Data1!$Z$1:$Z$10,Data1!$Z$103:$Z$233</definedName>
+    <definedName name="A2390876F_Data">Data1!$Z$103:$Z$233</definedName>
+    <definedName name="A2390876F_Latest">Data1!$Z$233</definedName>
+    <definedName name="A2390879L">Data1!$AJ$1:$AJ$10,Data1!$AJ$103:$AJ$233</definedName>
+    <definedName name="A2390879L_Data">Data1!$AJ$103:$AJ$233</definedName>
+    <definedName name="A2390879L_Latest">Data1!$AJ$233</definedName>
+    <definedName name="A2390882A">Data1!$AT$1:$AT$10,Data1!$AT$103:$AT$233</definedName>
+    <definedName name="A2390882A_Data">Data1!$AT$103:$AT$233</definedName>
+    <definedName name="A2390882A_Latest">Data1!$AT$233</definedName>
+    <definedName name="A2390885J">Data1!$BD$1:$BD$10,Data1!$BD$103:$BD$233</definedName>
+    <definedName name="A2390885J_Data">Data1!$BD$103:$BD$233</definedName>
+    <definedName name="A2390885J_Latest">Data1!$BD$233</definedName>
+    <definedName name="A2390888R">Data1!$BN$1:$BN$10,Data1!$BN$103:$BN$233</definedName>
+    <definedName name="A2390888R_Data">Data1!$BN$103:$BN$233</definedName>
+    <definedName name="A2390888R_Latest">Data1!$BN$233</definedName>
+    <definedName name="A2390891C">Data1!$AC$1:$AC$10,Data1!$AC$103:$AC$233</definedName>
+    <definedName name="A2390891C_Data">Data1!$AC$103:$AC$233</definedName>
+    <definedName name="A2390891C_Latest">Data1!$AC$233</definedName>
+    <definedName name="A2390894K">Data1!$AM$1:$AM$10,Data1!$AM$103:$AM$233</definedName>
+    <definedName name="A2390894K_Data">Data1!$AM$103:$AM$233</definedName>
+    <definedName name="A2390894K_Latest">Data1!$AM$233</definedName>
+    <definedName name="A2390897T">Data1!$AW$1:$AW$10,Data1!$AW$103:$AW$233</definedName>
+    <definedName name="A2390897T_Data">Data1!$AW$103:$AW$233</definedName>
+    <definedName name="A2390897T_Latest">Data1!$AW$233</definedName>
+    <definedName name="A2390900V">Data1!$BG$1:$BG$10,Data1!$BG$103:$BG$233</definedName>
+    <definedName name="A2390900V_Data">Data1!$BG$103:$BG$233</definedName>
+    <definedName name="A2390900V_Latest">Data1!$BG$233</definedName>
+    <definedName name="A2390903A">Data1!$BQ$1:$BQ$10,Data1!$BQ$103:$BQ$233</definedName>
+    <definedName name="A2390903A_Data">Data1!$BQ$103:$BQ$233</definedName>
+    <definedName name="A2390903A_Latest">Data1!$BQ$233</definedName>
+    <definedName name="A2390906J">Data1!$CA$1:$CA$10,Data1!$CA$103:$CA$233</definedName>
+    <definedName name="A2390906J_Data">Data1!$CA$103:$CA$233</definedName>
+    <definedName name="A2390906J_Latest">Data1!$CA$233</definedName>
+    <definedName name="A2390909R">Data1!$AE$1:$AE$10,Data1!$AE$103:$AE$233</definedName>
+    <definedName name="A2390909R_Data">Data1!$AE$103:$AE$233</definedName>
+    <definedName name="A2390909R_Latest">Data1!$AE$233</definedName>
+    <definedName name="A2390912C">Data1!$AO$1:$AO$10,Data1!$AO$103:$AO$233</definedName>
+    <definedName name="A2390912C_Data">Data1!$AO$103:$AO$233</definedName>
+    <definedName name="A2390912C_Latest">Data1!$AO$233</definedName>
+    <definedName name="A2390915K">Data1!$AY$1:$AY$10,Data1!$AY$103:$AY$233</definedName>
+    <definedName name="A2390915K_Data">Data1!$AY$103:$AY$233</definedName>
+    <definedName name="A2390915K_Latest">Data1!$AY$233</definedName>
+    <definedName name="A2390918T">Data1!$BI$1:$BI$10,Data1!$BI$103:$BI$233</definedName>
+    <definedName name="A2390918T_Data">Data1!$BI$103:$BI$233</definedName>
+    <definedName name="A2390918T_Latest">Data1!$BI$233</definedName>
+    <definedName name="A2390921F">Data1!$BS$1:$BS$10,Data1!$BS$103:$BS$233</definedName>
+    <definedName name="A2390921F_Data">Data1!$BS$103:$BS$233</definedName>
+    <definedName name="A2390921F_Latest">Data1!$BS$233</definedName>
+    <definedName name="A2390924L">Data1!$CC$1:$CC$10,Data1!$CC$103:$CC$233</definedName>
+    <definedName name="A2390924L_Data">Data1!$CC$103:$CC$233</definedName>
+    <definedName name="A2390924L_Latest">Data1!$CC$233</definedName>
+    <definedName name="A2390927V">Data1!$AF$1:$AF$10,Data1!$AF$103:$AF$233</definedName>
+    <definedName name="A2390927V_Data">Data1!$AF$103:$AF$233</definedName>
+    <definedName name="A2390927V_Latest">Data1!$AF$233</definedName>
+    <definedName name="A2390930J">Data1!$AP$1:$AP$10,Data1!$AP$103:$AP$233</definedName>
+    <definedName name="A2390930J_Data">Data1!$AP$103:$AP$233</definedName>
+    <definedName name="A2390930J_Latest">Data1!$AP$233</definedName>
+    <definedName name="A2390933R">Data1!$AZ$1:$AZ$10,Data1!$AZ$103:$AZ$233</definedName>
+    <definedName name="A2390933R_Data">Data1!$AZ$103:$AZ$233</definedName>
+    <definedName name="A2390933R_Latest">Data1!$AZ$233</definedName>
+    <definedName name="A2390936W">Data1!$BJ$1:$BJ$10,Data1!$BJ$103:$BJ$233</definedName>
+    <definedName name="A2390936W_Data">Data1!$BJ$103:$BJ$233</definedName>
+    <definedName name="A2390936W_Latest">Data1!$BJ$233</definedName>
+    <definedName name="A2390939C">Data1!$BT$1:$BT$10,Data1!$BT$103:$BT$233</definedName>
+    <definedName name="A2390939C_Data">Data1!$BT$103:$BT$233</definedName>
+    <definedName name="A2390939C_Latest">Data1!$BT$233</definedName>
+    <definedName name="A2390942T">Data1!$CD$1:$CD$10,Data1!$CD$103:$CD$233</definedName>
+    <definedName name="A2390942T_Data">Data1!$CD$103:$CD$233</definedName>
+    <definedName name="A2390942T_Latest">Data1!$CD$233</definedName>
+    <definedName name="A2390945X">Data1!$AA$1:$AA$10,Data1!$AA$103:$AA$233</definedName>
+    <definedName name="A2390945X_Data">Data1!$AA$103:$AA$233</definedName>
+    <definedName name="A2390945X_Latest">Data1!$AA$233</definedName>
+    <definedName name="A2390948F">Data1!$AK$1:$AK$10,Data1!$AK$103:$AK$233</definedName>
+    <definedName name="A2390948F_Data">Data1!$AK$103:$AK$233</definedName>
+    <definedName name="A2390948F_Latest">Data1!$AK$233</definedName>
+    <definedName name="A2390951V">Data1!$AU$1:$AU$10,Data1!$AU$103:$AU$233</definedName>
+    <definedName name="A2390951V_Data">Data1!$AU$103:$AU$233</definedName>
+    <definedName name="A2390951V_Latest">Data1!$AU$233</definedName>
+    <definedName name="A2390954A">Data1!$BE$1:$BE$10,Data1!$BE$103:$BE$233</definedName>
+    <definedName name="A2390954A_Data">Data1!$BE$103:$BE$233</definedName>
+    <definedName name="A2390954A_Latest">Data1!$BE$233</definedName>
+    <definedName name="A2390957J">Data1!$BO$1:$BO$10,Data1!$BO$103:$BO$233</definedName>
+    <definedName name="A2390957J_Data">Data1!$BO$103:$BO$233</definedName>
+    <definedName name="A2390957J_Latest">Data1!$BO$233</definedName>
+    <definedName name="A2390960W">Data1!$BY$1:$BY$10,Data1!$BY$103:$BY$233</definedName>
+    <definedName name="A2390960W_Data">Data1!$BY$103:$BY$233</definedName>
+    <definedName name="A2390960W_Latest">Data1!$BY$233</definedName>
+    <definedName name="A2390963C">Data1!$AB$1:$AB$10,Data1!$AB$103:$AB$233</definedName>
+    <definedName name="A2390963C_Data">Data1!$AB$103:$AB$233</definedName>
+    <definedName name="A2390963C_Latest">Data1!$AB$233</definedName>
+    <definedName name="A2390966K">Data1!$AL$1:$AL$10,Data1!$AL$103:$AL$233</definedName>
+    <definedName name="A2390966K_Data">Data1!$AL$103:$AL$233</definedName>
+    <definedName name="A2390966K_Latest">Data1!$AL$233</definedName>
+    <definedName name="A2390969T">Data1!$AV$1:$AV$10,Data1!$AV$103:$AV$233</definedName>
+    <definedName name="A2390969T_Data">Data1!$AV$103:$AV$233</definedName>
+    <definedName name="A2390969T_Latest">Data1!$AV$233</definedName>
+    <definedName name="A2390972F">Data1!$BF$1:$BF$10,Data1!$BF$103:$BF$233</definedName>
+    <definedName name="A2390972F_Data">Data1!$BF$103:$BF$233</definedName>
+    <definedName name="A2390972F_Latest">Data1!$BF$233</definedName>
+    <definedName name="A2390975L">Data1!$BP$1:$BP$10,Data1!$BP$103:$BP$233</definedName>
+    <definedName name="A2390975L_Data">Data1!$BP$103:$BP$233</definedName>
+    <definedName name="A2390975L_Latest">Data1!$BP$233</definedName>
+    <definedName name="A2390978V">Data1!$BZ$1:$BZ$10,Data1!$BZ$103:$BZ$233</definedName>
+    <definedName name="A2390978V_Data">Data1!$BZ$103:$BZ$233</definedName>
+    <definedName name="A2390978V_Latest">Data1!$BZ$233</definedName>
+    <definedName name="A2390981J">Data1!$AD$1:$AD$10,Data1!$AD$103:$AD$233</definedName>
+    <definedName name="A2390981J_Data">Data1!$AD$103:$AD$233</definedName>
+    <definedName name="A2390981J_Latest">Data1!$AD$233</definedName>
+    <definedName name="A2390984R">Data1!$AN$1:$AN$10,Data1!$AN$103:$AN$233</definedName>
+    <definedName name="A2390984R_Data">Data1!$AN$103:$AN$233</definedName>
+    <definedName name="A2390984R_Latest">Data1!$AN$233</definedName>
+    <definedName name="A2390987W">Data1!$AX$1:$AX$10,Data1!$AX$103:$AX$233</definedName>
+    <definedName name="A2390987W_Data">Data1!$AX$103:$AX$233</definedName>
+    <definedName name="A2390987W_Latest">Data1!$AX$233</definedName>
+    <definedName name="A2390990K">Data1!$BH$1:$BH$10,Data1!$BH$103:$BH$233</definedName>
+    <definedName name="A2390990K_Data">Data1!$BH$103:$BH$233</definedName>
+    <definedName name="A2390990K_Latest">Data1!$BH$233</definedName>
+    <definedName name="A2390993T">Data1!$BR$1:$BR$10,Data1!$BR$103:$BR$233</definedName>
+    <definedName name="A2390993T_Data">Data1!$BR$103:$BR$233</definedName>
+    <definedName name="A2390993T_Latest">Data1!$BR$233</definedName>
+    <definedName name="A2390996X">Data1!$CB$1:$CB$10,Data1!$CB$103:$CB$233</definedName>
+    <definedName name="A2390996X_Data">Data1!$CB$103:$CB$233</definedName>
+    <definedName name="A2390996X_Latest">Data1!$CB$233</definedName>
+    <definedName name="A2390999F">Data1!$BX$1:$BX$10,Data1!$BX$103:$BX$233</definedName>
+    <definedName name="A2390999F_Data">Data1!$BX$103:$BX$233</definedName>
+    <definedName name="A2390999F_Latest">Data1!$BX$233</definedName>
+    <definedName name="Date_Range">Data1!$A$2:$A$10,Data1!$A$11:$A$233</definedName>
+    <definedName name="Date_Range_Data">Data1!$A$11:$A$233</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -5034,10 +5034,10 @@
         <v>24351</v>
       </c>
       <c r="G12" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H12" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I12" s="10" t="s">
         <v>139</v>
@@ -5066,10 +5066,10 @@
         <v>24351</v>
       </c>
       <c r="G13" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H13" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I13" s="10" t="s">
         <v>139</v>
@@ -5098,10 +5098,10 @@
         <v>24351</v>
       </c>
       <c r="G14" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H14" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I14" s="10" t="s">
         <v>139</v>
@@ -5130,10 +5130,10 @@
         <v>24351</v>
       </c>
       <c r="G15" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H15" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>139</v>
@@ -5162,10 +5162,10 @@
         <v>24351</v>
       </c>
       <c r="G16" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H16" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>139</v>
@@ -5194,10 +5194,10 @@
         <v>24351</v>
       </c>
       <c r="G17" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H17" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I17" s="10" t="s">
         <v>139</v>
@@ -5226,10 +5226,10 @@
         <v>24351</v>
       </c>
       <c r="G18" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H18" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I18" s="10" t="s">
         <v>139</v>
@@ -5258,10 +5258,10 @@
         <v>24442</v>
       </c>
       <c r="G19" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H19" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>150</v>
@@ -5290,10 +5290,10 @@
         <v>24442</v>
       </c>
       <c r="G20" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H20" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I20" s="10" t="s">
         <v>150</v>
@@ -5322,10 +5322,10 @@
         <v>24442</v>
       </c>
       <c r="G21" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H21" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>150</v>
@@ -5354,10 +5354,10 @@
         <v>24442</v>
       </c>
       <c r="G22" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H22" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I22" s="10" t="s">
         <v>150</v>
@@ -5386,10 +5386,10 @@
         <v>24442</v>
       </c>
       <c r="G23" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H23" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>150</v>
@@ -5418,10 +5418,10 @@
         <v>24442</v>
       </c>
       <c r="G24" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H24" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>150</v>
@@ -5450,10 +5450,10 @@
         <v>24442</v>
       </c>
       <c r="G25" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H25" s="10">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>150</v>
@@ -5482,10 +5482,10 @@
         <v>24716</v>
       </c>
       <c r="G26" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H26" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>150</v>
@@ -5514,10 +5514,10 @@
         <v>24716</v>
       </c>
       <c r="G27" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H27" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>150</v>
@@ -5546,10 +5546,10 @@
         <v>24716</v>
       </c>
       <c r="G28" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H28" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>150</v>
@@ -5578,10 +5578,10 @@
         <v>24716</v>
       </c>
       <c r="G29" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H29" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>150</v>
@@ -5610,10 +5610,10 @@
         <v>24716</v>
       </c>
       <c r="G30" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H30" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I30" s="10" t="s">
         <v>150</v>
@@ -5642,10 +5642,10 @@
         <v>24716</v>
       </c>
       <c r="G31" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H31" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>150</v>
@@ -5674,10 +5674,10 @@
         <v>24716</v>
       </c>
       <c r="G32" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H32" s="10">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>150</v>
@@ -5706,10 +5706,10 @@
         <v>32752</v>
       </c>
       <c r="G33" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H33" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>139</v>
@@ -5738,10 +5738,10 @@
         <v>32752</v>
       </c>
       <c r="G34" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H34" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>139</v>
@@ -5770,10 +5770,10 @@
         <v>32752</v>
       </c>
       <c r="G35" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H35" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>139</v>
@@ -5802,10 +5802,10 @@
         <v>32752</v>
       </c>
       <c r="G36" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H36" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>139</v>
@@ -5834,10 +5834,10 @@
         <v>32752</v>
       </c>
       <c r="G37" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H37" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>139</v>
@@ -5866,10 +5866,10 @@
         <v>32752</v>
       </c>
       <c r="G38" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H38" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I38" s="10" t="s">
         <v>139</v>
@@ -5898,10 +5898,10 @@
         <v>32752</v>
       </c>
       <c r="G39" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H39" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>139</v>
@@ -5930,10 +5930,10 @@
         <v>32752</v>
       </c>
       <c r="G40" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H40" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>139</v>
@@ -5962,10 +5962,10 @@
         <v>32752</v>
       </c>
       <c r="G41" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H41" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>139</v>
@@ -5994,10 +5994,10 @@
         <v>32752</v>
       </c>
       <c r="G42" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H42" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>139</v>
@@ -6026,10 +6026,10 @@
         <v>32752</v>
       </c>
       <c r="G43" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H43" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>139</v>
@@ -6058,10 +6058,10 @@
         <v>32752</v>
       </c>
       <c r="G44" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H44" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>139</v>
@@ -6090,10 +6090,10 @@
         <v>32752</v>
       </c>
       <c r="G45" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H45" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>139</v>
@@ -6122,10 +6122,10 @@
         <v>32752</v>
       </c>
       <c r="G46" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H46" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I46" s="10" t="s">
         <v>139</v>
@@ -6154,10 +6154,10 @@
         <v>32752</v>
       </c>
       <c r="G47" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H47" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>139</v>
@@ -6186,10 +6186,10 @@
         <v>32752</v>
       </c>
       <c r="G48" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H48" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I48" s="10" t="s">
         <v>139</v>
@@ -6218,10 +6218,10 @@
         <v>32752</v>
       </c>
       <c r="G49" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H49" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I49" s="10" t="s">
         <v>139</v>
@@ -6250,10 +6250,10 @@
         <v>32752</v>
       </c>
       <c r="G50" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H50" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I50" s="10" t="s">
         <v>139</v>
@@ -6282,10 +6282,10 @@
         <v>32752</v>
       </c>
       <c r="G51" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H51" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>139</v>
@@ -6314,10 +6314,10 @@
         <v>32752</v>
       </c>
       <c r="G52" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H52" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I52" s="10" t="s">
         <v>139</v>
@@ -6346,10 +6346,10 @@
         <v>32752</v>
       </c>
       <c r="G53" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H53" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I53" s="10" t="s">
         <v>139</v>
@@ -6378,10 +6378,10 @@
         <v>32752</v>
       </c>
       <c r="G54" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H54" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>139</v>
@@ -6410,10 +6410,10 @@
         <v>32752</v>
       </c>
       <c r="G55" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H55" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>139</v>
@@ -6442,10 +6442,10 @@
         <v>32752</v>
       </c>
       <c r="G56" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H56" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>139</v>
@@ -6474,10 +6474,10 @@
         <v>32752</v>
       </c>
       <c r="G57" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H57" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I57" s="10" t="s">
         <v>139</v>
@@ -6506,10 +6506,10 @@
         <v>32752</v>
       </c>
       <c r="G58" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H58" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I58" s="10" t="s">
         <v>139</v>
@@ -6538,10 +6538,10 @@
         <v>32752</v>
       </c>
       <c r="G59" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H59" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>139</v>
@@ -6570,10 +6570,10 @@
         <v>32752</v>
       </c>
       <c r="G60" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H60" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I60" s="10" t="s">
         <v>139</v>
@@ -6602,10 +6602,10 @@
         <v>32752</v>
       </c>
       <c r="G61" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H61" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>139</v>
@@ -6634,10 +6634,10 @@
         <v>32752</v>
       </c>
       <c r="G62" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H62" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>139</v>
@@ -6666,10 +6666,10 @@
         <v>32752</v>
       </c>
       <c r="G63" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H63" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I63" s="10" t="s">
         <v>139</v>
@@ -6698,10 +6698,10 @@
         <v>32752</v>
       </c>
       <c r="G64" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H64" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I64" s="10" t="s">
         <v>139</v>
@@ -6730,10 +6730,10 @@
         <v>32752</v>
       </c>
       <c r="G65" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H65" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I65" s="10" t="s">
         <v>139</v>
@@ -6762,10 +6762,10 @@
         <v>32752</v>
       </c>
       <c r="G66" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H66" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I66" s="10" t="s">
         <v>139</v>
@@ -6794,10 +6794,10 @@
         <v>32752</v>
       </c>
       <c r="G67" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H67" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I67" s="10" t="s">
         <v>139</v>
@@ -6826,10 +6826,10 @@
         <v>32752</v>
       </c>
       <c r="G68" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H68" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I68" s="10" t="s">
         <v>139</v>
@@ -6858,10 +6858,10 @@
         <v>32752</v>
       </c>
       <c r="G69" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H69" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I69" s="10" t="s">
         <v>139</v>
@@ -6890,10 +6890,10 @@
         <v>32752</v>
       </c>
       <c r="G70" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H70" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>139</v>
@@ -6922,10 +6922,10 @@
         <v>32752</v>
       </c>
       <c r="G71" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H71" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I71" s="10" t="s">
         <v>139</v>
@@ -6954,10 +6954,10 @@
         <v>32752</v>
       </c>
       <c r="G72" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H72" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>139</v>
@@ -6986,10 +6986,10 @@
         <v>32752</v>
       </c>
       <c r="G73" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H73" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I73" s="10" t="s">
         <v>139</v>
@@ -7018,10 +7018,10 @@
         <v>32752</v>
       </c>
       <c r="G74" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H74" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I74" s="10" t="s">
         <v>139</v>
@@ -7050,10 +7050,10 @@
         <v>32752</v>
       </c>
       <c r="G75" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H75" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>139</v>
@@ -7082,10 +7082,10 @@
         <v>32752</v>
       </c>
       <c r="G76" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H76" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I76" s="10" t="s">
         <v>139</v>
@@ -7114,10 +7114,10 @@
         <v>32752</v>
       </c>
       <c r="G77" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H77" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I77" s="10" t="s">
         <v>139</v>
@@ -7146,10 +7146,10 @@
         <v>32752</v>
       </c>
       <c r="G78" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H78" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I78" s="10" t="s">
         <v>139</v>
@@ -7178,10 +7178,10 @@
         <v>32752</v>
       </c>
       <c r="G79" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H79" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I79" s="10" t="s">
         <v>139</v>
@@ -7210,10 +7210,10 @@
         <v>32752</v>
       </c>
       <c r="G80" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H80" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I80" s="10" t="s">
         <v>139</v>
@@ -7242,10 +7242,10 @@
         <v>32752</v>
       </c>
       <c r="G81" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H81" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I81" s="10" t="s">
         <v>139</v>
@@ -7274,10 +7274,10 @@
         <v>32752</v>
       </c>
       <c r="G82" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H82" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I82" s="10" t="s">
         <v>139</v>
@@ -7306,10 +7306,10 @@
         <v>32752</v>
       </c>
       <c r="G83" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H83" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I83" s="10" t="s">
         <v>139</v>
@@ -7338,10 +7338,10 @@
         <v>32752</v>
       </c>
       <c r="G84" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H84" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I84" s="10" t="s">
         <v>139</v>
@@ -7370,10 +7370,10 @@
         <v>32752</v>
       </c>
       <c r="G85" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H85" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I85" s="10" t="s">
         <v>139</v>
@@ -7402,10 +7402,10 @@
         <v>32752</v>
       </c>
       <c r="G86" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H86" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I86" s="10" t="s">
         <v>139</v>
@@ -7434,10 +7434,10 @@
         <v>32752</v>
       </c>
       <c r="G87" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H87" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I87" s="10" t="s">
         <v>139</v>
@@ -7466,10 +7466,10 @@
         <v>32752</v>
       </c>
       <c r="G88" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H88" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I88" s="10" t="s">
         <v>139</v>
@@ -7498,10 +7498,10 @@
         <v>32752</v>
       </c>
       <c r="G89" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H89" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I89" s="10" t="s">
         <v>139</v>
@@ -7530,10 +7530,10 @@
         <v>32752</v>
       </c>
       <c r="G90" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H90" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I90" s="10" t="s">
         <v>139</v>
@@ -7562,10 +7562,10 @@
         <v>32752</v>
       </c>
       <c r="G91" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H91" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I91" s="10" t="s">
         <v>139</v>
@@ -7594,10 +7594,10 @@
         <v>32752</v>
       </c>
       <c r="G92" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H92" s="10">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I92" s="10" t="s">
         <v>139</v>
@@ -7626,10 +7626,10 @@
         <v>24351</v>
       </c>
       <c r="G93" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H93" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I93" s="10" t="s">
         <v>139</v>
@@ -7658,10 +7658,10 @@
         <v>31291</v>
       </c>
       <c r="G94" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H94" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I94" s="10" t="s">
         <v>139</v>
@@ -7690,10 +7690,10 @@
         <v>31291</v>
       </c>
       <c r="G95" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H95" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I95" s="10" t="s">
         <v>139</v>
@@ -7722,10 +7722,10 @@
         <v>31291</v>
       </c>
       <c r="G96" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H96" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>139</v>
@@ -7754,10 +7754,10 @@
         <v>31291</v>
       </c>
       <c r="G97" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H97" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>139</v>
@@ -7786,10 +7786,10 @@
         <v>31291</v>
       </c>
       <c r="G98" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H98" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I98" s="10" t="s">
         <v>139</v>
@@ -7818,10 +7818,10 @@
         <v>24351</v>
       </c>
       <c r="G99" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H99" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>139</v>
@@ -7850,10 +7850,10 @@
         <v>31291</v>
       </c>
       <c r="G100" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H100" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I100" s="10" t="s">
         <v>139</v>
@@ -7882,10 +7882,10 @@
         <v>31291</v>
       </c>
       <c r="G101" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H101" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I101" s="10" t="s">
         <v>139</v>
@@ -7914,10 +7914,10 @@
         <v>31291</v>
       </c>
       <c r="G102" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H102" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I102" s="10" t="s">
         <v>139</v>
@@ -7946,10 +7946,10 @@
         <v>24351</v>
       </c>
       <c r="G103" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H103" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I103" s="10" t="s">
         <v>139</v>
@@ -7978,10 +7978,10 @@
         <v>31291</v>
       </c>
       <c r="G104" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H104" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I104" s="10" t="s">
         <v>139</v>
@@ -8010,10 +8010,10 @@
         <v>31291</v>
       </c>
       <c r="G105" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H105" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I105" s="10" t="s">
         <v>139</v>
@@ -8042,10 +8042,10 @@
         <v>31291</v>
       </c>
       <c r="G106" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H106" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I106" s="10" t="s">
         <v>139</v>
@@ -8074,10 +8074,10 @@
         <v>24351</v>
       </c>
       <c r="G107" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H107" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I107" s="10" t="s">
         <v>139</v>
@@ -8106,10 +8106,10 @@
         <v>31291</v>
       </c>
       <c r="G108" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H108" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I108" s="10" t="s">
         <v>139</v>
@@ -8138,10 +8138,10 @@
         <v>31291</v>
       </c>
       <c r="G109" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H109" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I109" s="10" t="s">
         <v>139</v>
@@ -8170,10 +8170,10 @@
         <v>24351</v>
       </c>
       <c r="G110" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H110" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>139</v>
@@ -8202,10 +8202,10 @@
         <v>31291</v>
       </c>
       <c r="G111" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H111" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I111" s="10" t="s">
         <v>139</v>
@@ -8234,10 +8234,10 @@
         <v>31291</v>
       </c>
       <c r="G112" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H112" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I112" s="10" t="s">
         <v>139</v>
@@ -8266,10 +8266,10 @@
         <v>24351</v>
       </c>
       <c r="G113" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H113" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I113" s="10" t="s">
         <v>139</v>
@@ -8298,10 +8298,10 @@
         <v>31291</v>
       </c>
       <c r="G114" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H114" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I114" s="10" t="s">
         <v>139</v>
@@ -8330,10 +8330,10 @@
         <v>35034</v>
       </c>
       <c r="G115" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H115" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I115" s="10" t="s">
         <v>139</v>
@@ -8362,10 +8362,10 @@
         <v>31291</v>
       </c>
       <c r="G116" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H116" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I116" s="10" t="s">
         <v>139</v>
@@ -8394,10 +8394,10 @@
         <v>31291</v>
       </c>
       <c r="G117" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H117" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I117" s="10" t="s">
         <v>139</v>
@@ -8426,10 +8426,10 @@
         <v>31291</v>
       </c>
       <c r="G118" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H118" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I118" s="10" t="s">
         <v>139</v>
@@ -8458,10 +8458,10 @@
         <v>31291</v>
       </c>
       <c r="G119" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H119" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I119" s="10" t="s">
         <v>139</v>
@@ -8490,10 +8490,10 @@
         <v>24351</v>
       </c>
       <c r="G120" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H120" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I120" s="10" t="s">
         <v>139</v>
@@ -8522,10 +8522,10 @@
         <v>35034</v>
       </c>
       <c r="G121" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H121" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I121" s="10" t="s">
         <v>139</v>
@@ -8554,10 +8554,10 @@
         <v>35034</v>
       </c>
       <c r="G122" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H122" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I122" s="10" t="s">
         <v>139</v>
@@ -8586,10 +8586,10 @@
         <v>35034</v>
       </c>
       <c r="G123" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H123" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I123" s="10" t="s">
         <v>139</v>
@@ -8618,10 +8618,10 @@
         <v>31291</v>
       </c>
       <c r="G124" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H124" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I124" s="10" t="s">
         <v>139</v>
@@ -8650,10 +8650,10 @@
         <v>31291</v>
       </c>
       <c r="G125" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H125" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I125" s="10" t="s">
         <v>139</v>
@@ -8682,10 +8682,10 @@
         <v>24351</v>
       </c>
       <c r="G126" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H126" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I126" s="10" t="s">
         <v>139</v>
@@ -8714,10 +8714,10 @@
         <v>31291</v>
       </c>
       <c r="G127" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H127" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I127" s="10" t="s">
         <v>139</v>
@@ -8746,10 +8746,10 @@
         <v>31291</v>
       </c>
       <c r="G128" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H128" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I128" s="10" t="s">
         <v>139</v>
@@ -8778,10 +8778,10 @@
         <v>35034</v>
       </c>
       <c r="G129" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H129" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I129" s="10" t="s">
         <v>139</v>
@@ -8810,10 +8810,10 @@
         <v>24351</v>
       </c>
       <c r="G130" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H130" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I130" s="10" t="s">
         <v>139</v>
@@ -8842,10 +8842,10 @@
         <v>31291</v>
       </c>
       <c r="G131" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H131" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I131" s="10" t="s">
         <v>139</v>
@@ -8874,10 +8874,10 @@
         <v>31291</v>
       </c>
       <c r="G132" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H132" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I132" s="10" t="s">
         <v>139</v>
@@ -8906,10 +8906,10 @@
         <v>31291</v>
       </c>
       <c r="G133" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H133" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I133" s="10" t="s">
         <v>139</v>
@@ -8938,10 +8938,10 @@
         <v>24351</v>
       </c>
       <c r="G134" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H134" s="10">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="I134" s="10" t="s">
         <v>139</v>
@@ -8970,10 +8970,10 @@
         <v>35034</v>
       </c>
       <c r="G135" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H135" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I135" s="10" t="s">
         <v>139</v>
@@ -9002,10 +9002,10 @@
         <v>35034</v>
       </c>
       <c r="G136" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H136" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I136" s="10" t="s">
         <v>139</v>
@@ -9034,10 +9034,10 @@
         <v>31291</v>
       </c>
       <c r="G137" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H137" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I137" s="10" t="s">
         <v>139</v>
@@ -9066,10 +9066,10 @@
         <v>35034</v>
       </c>
       <c r="G138" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H138" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I138" s="10" t="s">
         <v>139</v>
@@ -9098,10 +9098,10 @@
         <v>31291</v>
       </c>
       <c r="G139" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H139" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I139" s="10" t="s">
         <v>139</v>
@@ -9130,10 +9130,10 @@
         <v>31291</v>
       </c>
       <c r="G140" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H140" s="10">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I140" s="10" t="s">
         <v>139</v>
@@ -9162,10 +9162,10 @@
         <v>35034</v>
       </c>
       <c r="G141" s="9">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H141" s="10">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I141" s="10" t="s">
         <v>139</v>
@@ -9330,7 +9330,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EA232"/>
+  <dimension ref="A1:EA233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="10" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
@@ -12111,394 +12111,394 @@
         <v>136</v>
       </c>
       <c r="B8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="C8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="D8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="E8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="F8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="G8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="H8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="I8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="J8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="K8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="L8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="M8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="N8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="O8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="P8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Q8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="R8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="S8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="T8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="U8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="V8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="W8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="X8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Y8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="Z8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="AZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="BZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="CZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DB8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DC8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DD8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DE8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DF8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DG8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DH8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DI8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DJ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DK8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DL8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DM8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DN8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DO8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DP8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DQ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DR8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DS8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DT8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DU8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DV8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DW8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DX8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DY8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="DZ8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="EA8" s="6">
-        <v>44531</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="9" spans="1:131" x14ac:dyDescent="0.2">
@@ -12506,394 +12506,394 @@
         <v>137</v>
       </c>
       <c r="B9" s="1">
+        <v>223</v>
+      </c>
+      <c r="C9" s="1">
+        <v>223</v>
+      </c>
+      <c r="D9" s="1">
+        <v>223</v>
+      </c>
+      <c r="E9" s="1">
+        <v>223</v>
+      </c>
+      <c r="F9" s="1">
+        <v>223</v>
+      </c>
+      <c r="G9" s="1">
+        <v>223</v>
+      </c>
+      <c r="H9" s="1">
+        <v>223</v>
+      </c>
+      <c r="I9" s="1">
         <v>222</v>
       </c>
-      <c r="C9" s="1">
+      <c r="J9" s="1">
         <v>222</v>
       </c>
-      <c r="D9" s="1">
+      <c r="K9" s="1">
         <v>222</v>
       </c>
-      <c r="E9" s="1">
+      <c r="L9" s="1">
         <v>222</v>
       </c>
-      <c r="F9" s="1">
+      <c r="M9" s="1">
         <v>222</v>
       </c>
-      <c r="G9" s="1">
+      <c r="N9" s="1">
         <v>222</v>
       </c>
-      <c r="H9" s="1">
+      <c r="O9" s="1">
         <v>222</v>
       </c>
-      <c r="I9" s="1">
-        <v>221</v>
-      </c>
-      <c r="J9" s="1">
-        <v>221</v>
-      </c>
-      <c r="K9" s="1">
-        <v>221</v>
-      </c>
-      <c r="L9" s="1">
-        <v>221</v>
-      </c>
-      <c r="M9" s="1">
-        <v>221</v>
-      </c>
-      <c r="N9" s="1">
-        <v>221</v>
-      </c>
-      <c r="O9" s="1">
-        <v>221</v>
-      </c>
       <c r="P9" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q9" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="R9" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S9" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="T9" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="U9" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V9" s="1">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="W9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="X9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Y9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Z9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AA9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AB9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AC9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AD9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AE9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AH9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AI9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AJ9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AK9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AM9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AN9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AO9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AP9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AQ9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AR9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AS9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AT9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AU9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AV9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AW9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AX9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AY9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AZ9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BA9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BB9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BC9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BD9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BE9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BF9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BG9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BH9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BI9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BJ9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BK9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BL9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BM9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BN9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BO9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BP9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BQ9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BR9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BS9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BT9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BU9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BV9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BW9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BX9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BY9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="BZ9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CA9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CB9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CC9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CD9" s="1">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CE9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CF9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CG9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CH9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CI9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CJ9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CK9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CL9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CM9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CN9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CO9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CP9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CQ9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CR9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CS9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CT9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CU9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CV9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CW9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CX9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="CY9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="CZ9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DA9" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DB9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DC9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DD9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DE9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DF9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DG9" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DH9" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DI9" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DJ9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DK9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DL9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DM9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DN9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DO9" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DP9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DQ9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DR9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DS9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DT9" s="1">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="DU9" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DV9" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DW9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DX9" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="DY9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="DZ9" s="1">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="EA9" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:131" x14ac:dyDescent="0.2">
@@ -74314,6 +74314,401 @@
         <v>115.8</v>
       </c>
       <c r="EA232" s="8">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:131" x14ac:dyDescent="0.2">
+      <c r="A233" s="9">
+        <v>44621</v>
+      </c>
+      <c r="B233" s="8">
+        <v>140.5</v>
+      </c>
+      <c r="C233" s="8">
+        <v>140.9</v>
+      </c>
+      <c r="D233" s="8">
+        <v>144.69999999999999</v>
+      </c>
+      <c r="E233" s="8">
+        <v>142.69999999999999</v>
+      </c>
+      <c r="F233" s="8">
+        <v>139.5</v>
+      </c>
+      <c r="G233" s="8">
+        <v>132.5</v>
+      </c>
+      <c r="H233" s="8">
+        <v>135.1</v>
+      </c>
+      <c r="I233" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="J233" s="8">
+        <v>3.6</v>
+      </c>
+      <c r="K233" s="8">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="L233" s="8">
+        <v>3.7</v>
+      </c>
+      <c r="M233" s="8">
+        <v>3.5</v>
+      </c>
+      <c r="N233" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="O233" s="8">
+        <v>4.2</v>
+      </c>
+      <c r="P233" s="8">
+        <v>15.4</v>
+      </c>
+      <c r="Q233" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="R233" s="8">
+        <v>16.8</v>
+      </c>
+      <c r="S233" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="T233" s="8">
+        <v>13.7</v>
+      </c>
+      <c r="U233" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="V233" s="8">
+        <v>14</v>
+      </c>
+      <c r="W233" s="8">
+        <v>146.5</v>
+      </c>
+      <c r="X233" s="8">
+        <v>151.30000000000001</v>
+      </c>
+      <c r="Y233" s="8">
+        <v>121.7</v>
+      </c>
+      <c r="Z233" s="8">
+        <v>124.9</v>
+      </c>
+      <c r="AA233" s="8">
+        <v>152.4</v>
+      </c>
+      <c r="AB233" s="8">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="AC233" s="8">
+        <v>137.80000000000001</v>
+      </c>
+      <c r="AD233" s="8">
+        <v>184</v>
+      </c>
+      <c r="AE233" s="8">
+        <v>121.7</v>
+      </c>
+      <c r="AF233" s="8">
+        <v>128</v>
+      </c>
+      <c r="AG233" s="8">
+        <v>151.9</v>
+      </c>
+      <c r="AH233" s="8">
+        <v>165.3</v>
+      </c>
+      <c r="AI233" s="8">
+        <v>112.1</v>
+      </c>
+      <c r="AJ233" s="8">
+        <v>124.9</v>
+      </c>
+      <c r="AK233" s="8">
+        <v>154.30000000000001</v>
+      </c>
+      <c r="AL233" s="8">
+        <v>143.1</v>
+      </c>
+      <c r="AM233" s="8">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="AN233" s="8">
+        <v>144.5</v>
+      </c>
+      <c r="AO233" s="8">
+        <v>119.1</v>
+      </c>
+      <c r="AP233" s="8">
+        <v>134.5</v>
+      </c>
+      <c r="AQ233" s="8">
+        <v>156.19999999999999</v>
+      </c>
+      <c r="AR233" s="8">
+        <v>149.80000000000001</v>
+      </c>
+      <c r="AS233" s="8">
+        <v>108.4</v>
+      </c>
+      <c r="AT233" s="8">
+        <v>124.2</v>
+      </c>
+      <c r="AU233" s="8">
+        <v>167.8</v>
+      </c>
+      <c r="AV233" s="8">
+        <v>131.1</v>
+      </c>
+      <c r="AW233" s="8">
+        <v>132.5</v>
+      </c>
+      <c r="AX233" s="8">
+        <v>161.5</v>
+      </c>
+      <c r="AY233" s="8">
+        <v>129.6</v>
+      </c>
+      <c r="AZ233" s="8">
+        <v>130.6</v>
+      </c>
+      <c r="BA233" s="8">
+        <v>149</v>
+      </c>
+      <c r="BB233" s="8">
+        <v>133.4</v>
+      </c>
+      <c r="BC233" s="8">
+        <v>105.7</v>
+      </c>
+      <c r="BD233" s="8">
+        <v>131.9</v>
+      </c>
+      <c r="BE233" s="8">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="BF233" s="8">
+        <v>145.6</v>
+      </c>
+      <c r="BG233" s="8">
+        <v>138.1</v>
+      </c>
+      <c r="BH233" s="8">
+        <v>139.6</v>
+      </c>
+      <c r="BI233" s="8">
+        <v>120.7</v>
+      </c>
+      <c r="BJ233" s="8">
+        <v>130.4</v>
+      </c>
+      <c r="BK233" s="8">
+        <v>141.80000000000001</v>
+      </c>
+      <c r="BL233" s="8">
+        <v>128.5</v>
+      </c>
+      <c r="BM233" s="8">
+        <v>104.3</v>
+      </c>
+      <c r="BN233" s="8">
+        <v>134</v>
+      </c>
+      <c r="BO233" s="8">
+        <v>140.1</v>
+      </c>
+      <c r="BP233" s="8">
+        <v>121.3</v>
+      </c>
+      <c r="BQ233" s="8">
+        <v>152.9</v>
+      </c>
+      <c r="BR233" s="8">
+        <v>148.19999999999999</v>
+      </c>
+      <c r="BS233" s="8">
+        <v>116.1</v>
+      </c>
+      <c r="BT233" s="8">
+        <v>125.6</v>
+      </c>
+      <c r="BU233" s="8">
+        <v>140.5</v>
+      </c>
+      <c r="BV233" s="8">
+        <v>153.5</v>
+      </c>
+      <c r="BW233" s="8">
+        <v>129.69999999999999</v>
+      </c>
+      <c r="BX233" s="8">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="BY233" s="8">
+        <v>190.4</v>
+      </c>
+      <c r="BZ233" s="8">
+        <v>110.2</v>
+      </c>
+      <c r="CA233" s="8">
+        <v>152.5</v>
+      </c>
+      <c r="CB233" s="8">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="CC233" s="8">
+        <v>117.3</v>
+      </c>
+      <c r="CD233" s="8">
+        <v>127.9</v>
+      </c>
+      <c r="CE233" s="8">
+        <v>149.6</v>
+      </c>
+      <c r="CF233" s="8">
+        <v>173.9</v>
+      </c>
+      <c r="CG233" s="8">
+        <v>165.9</v>
+      </c>
+      <c r="CH233" s="8">
+        <v>153.1</v>
+      </c>
+      <c r="CI233" s="8">
+        <v>160.19999999999999</v>
+      </c>
+      <c r="CJ233" s="8">
+        <v>121.9</v>
+      </c>
+      <c r="CK233" s="8">
+        <v>148</v>
+      </c>
+      <c r="CL233" s="8">
+        <v>152.69999999999999</v>
+      </c>
+      <c r="CM233" s="8">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="CN233" s="8">
+        <v>120.2</v>
+      </c>
+      <c r="CO233" s="8">
+        <v>111.3</v>
+      </c>
+      <c r="CP233" s="8">
+        <v>108.3</v>
+      </c>
+      <c r="CQ233" s="8">
+        <v>129.1</v>
+      </c>
+      <c r="CR233" s="8">
+        <v>122.8</v>
+      </c>
+      <c r="CS233" s="8">
+        <v>127.2</v>
+      </c>
+      <c r="CT233" s="8">
+        <v>122.3</v>
+      </c>
+      <c r="CU233" s="8">
+        <v>129</v>
+      </c>
+      <c r="CV233" s="8">
+        <v>154.5</v>
+      </c>
+      <c r="CW233" s="8">
+        <v>166.8</v>
+      </c>
+      <c r="CX233" s="8">
+        <v>148.5</v>
+      </c>
+      <c r="CY233" s="8">
+        <v>135</v>
+      </c>
+      <c r="CZ233" s="8">
+        <v>138.80000000000001</v>
+      </c>
+      <c r="DA233" s="8">
+        <v>152.4</v>
+      </c>
+      <c r="DB233" s="8">
+        <v>146.69999999999999</v>
+      </c>
+      <c r="DC233" s="8">
+        <v>129.80000000000001</v>
+      </c>
+      <c r="DD233" s="8">
+        <v>118.9</v>
+      </c>
+      <c r="DE233" s="8">
+        <v>112</v>
+      </c>
+      <c r="DF233" s="8">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="DG233" s="8">
+        <v>142</v>
+      </c>
+      <c r="DH233" s="8">
+        <v>149.30000000000001</v>
+      </c>
+      <c r="DI233" s="8">
+        <v>135.1</v>
+      </c>
+      <c r="DJ233" s="8">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="DK233" s="8">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="DL233" s="8">
+        <v>160.1</v>
+      </c>
+      <c r="DM233" s="8">
+        <v>186.6</v>
+      </c>
+      <c r="DN233" s="8">
+        <v>123.1</v>
+      </c>
+      <c r="DO233" s="8">
+        <v>133.4</v>
+      </c>
+      <c r="DP233" s="8">
+        <v>121.2</v>
+      </c>
+      <c r="DQ233" s="8">
+        <v>117.7</v>
+      </c>
+      <c r="DR233" s="8">
+        <v>118.9</v>
+      </c>
+      <c r="DS233" s="8">
+        <v>121.9</v>
+      </c>
+      <c r="DT233" s="8">
+        <v>130.30000000000001</v>
+      </c>
+      <c r="DU233" s="8">
+        <v>128</v>
+      </c>
+      <c r="DV233" s="8">
+        <v>130.4</v>
+      </c>
+      <c r="DW233" s="8">
+        <v>127.5</v>
+      </c>
+      <c r="DX233" s="8">
+        <v>136.1</v>
+      </c>
+      <c r="DY233" s="8">
+        <v>134.9</v>
+      </c>
+      <c r="DZ233" s="8">
+        <v>123.1</v>
+      </c>
+      <c r="EA233" s="8">
         <v>94.4</v>
       </c>
     </row>
